--- a/client/DataCleaner/generated/Fastag_Cleaned.xlsx
+++ b/client/DataCleaner/generated/Fastag_Cleaned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="774">
   <si>
     <t>Vehicle No</t>
   </si>
@@ -37,10 +37,658 @@
     <t>Tag Dr/Cr</t>
   </si>
   <si>
+    <t>HR46G2831</t>
+  </si>
+  <si>
+    <t>HR55AL2748</t>
+  </si>
+  <si>
+    <t>HR55AL5878</t>
+  </si>
+  <si>
+    <t>HR55AR9680</t>
+  </si>
+  <si>
     <t>HR55AW5006</t>
   </si>
   <si>
+    <t>HR55AX4181</t>
+  </si>
+  <si>
+    <t>HR69F7885</t>
+  </si>
+  <si>
     <t>MA3DND62SSEA45961</t>
+  </si>
+  <si>
+    <t>26-12-2025 16:24:33</t>
+  </si>
+  <si>
+    <t>26-12-2025 09:23:01</t>
+  </si>
+  <si>
+    <t>25-12-2025 20:54:01</t>
+  </si>
+  <si>
+    <t>24-12-2025 21:13:41</t>
+  </si>
+  <si>
+    <t>24-12-2025 12:09:43</t>
+  </si>
+  <si>
+    <t>23-12-2025 21:15:18</t>
+  </si>
+  <si>
+    <t>23-12-2025 18:02:40</t>
+  </si>
+  <si>
+    <t>23-12-2025 11:40:29</t>
+  </si>
+  <si>
+    <t>23-12-2025 06:30:59</t>
+  </si>
+  <si>
+    <t>22-12-2025 17:52:26</t>
+  </si>
+  <si>
+    <t>22-12-2025 16:14:45</t>
+  </si>
+  <si>
+    <t>22-12-2025 12:16:10</t>
+  </si>
+  <si>
+    <t>21-12-2025 22:19:10</t>
+  </si>
+  <si>
+    <t>21-12-2025 18:00:48</t>
+  </si>
+  <si>
+    <t>21-12-2025 17:36:45</t>
+  </si>
+  <si>
+    <t>21-12-2025 17:34:17</t>
+  </si>
+  <si>
+    <t>20-12-2025 11:32:01</t>
+  </si>
+  <si>
+    <t>19-12-2025 18:02:08</t>
+  </si>
+  <si>
+    <t>19-12-2025 17:08:07</t>
+  </si>
+  <si>
+    <t>19-12-2025 14:00:50</t>
+  </si>
+  <si>
+    <t>19-12-2025 12:29:04</t>
+  </si>
+  <si>
+    <t>19-12-2025 08:37:50</t>
+  </si>
+  <si>
+    <t>18-12-2025 18:07:08</t>
+  </si>
+  <si>
+    <t>18-12-2025 14:33:18</t>
+  </si>
+  <si>
+    <t>18-12-2025 13:48:12</t>
+  </si>
+  <si>
+    <t>18-12-2025 08:32:20</t>
+  </si>
+  <si>
+    <t>18-12-2025 07:03:40</t>
+  </si>
+  <si>
+    <t>18-12-2025 06:09:53</t>
+  </si>
+  <si>
+    <t>17-12-2025 17:54:27</t>
+  </si>
+  <si>
+    <t>17-12-2025 11:55:27</t>
+  </si>
+  <si>
+    <t>17-12-2025 11:09:03</t>
+  </si>
+  <si>
+    <t>17-12-2025 08:49:23</t>
+  </si>
+  <si>
+    <t>17-12-2025 07:14:28</t>
+  </si>
+  <si>
+    <t>17-12-2025 06:03:02</t>
+  </si>
+  <si>
+    <t>16-12-2025 18:02:54</t>
+  </si>
+  <si>
+    <t>16-12-2025 10:47:43</t>
+  </si>
+  <si>
+    <t>16-12-2025 04:19:10</t>
+  </si>
+  <si>
+    <t>15-12-2025 17:50:23</t>
+  </si>
+  <si>
+    <t>15-12-2025 12:31:56</t>
+  </si>
+  <si>
+    <t>15-12-2025 11:29:42</t>
+  </si>
+  <si>
+    <t>15-12-2025 08:13:02</t>
+  </si>
+  <si>
+    <t>15-12-2025 08:11:41</t>
+  </si>
+  <si>
+    <t>15-12-2025 06:36:11</t>
+  </si>
+  <si>
+    <t>14-12-2025 15:03:21</t>
+  </si>
+  <si>
+    <t>12-12-2025 20:15:46</t>
+  </si>
+  <si>
+    <t>12-12-2025 12:33:08</t>
+  </si>
+  <si>
+    <t>12-12-2025 11:49:03</t>
+  </si>
+  <si>
+    <t>12-12-2025 10:48:06</t>
+  </si>
+  <si>
+    <t>12-12-2025 10:15:15</t>
+  </si>
+  <si>
+    <t>12-12-2025 08:48:48</t>
+  </si>
+  <si>
+    <t>12-12-2025 08:31:11</t>
+  </si>
+  <si>
+    <t>11-12-2025 08:51:03</t>
+  </si>
+  <si>
+    <t>10-12-2025 17:48:26</t>
+  </si>
+  <si>
+    <t>10-12-2025 08:32:25</t>
+  </si>
+  <si>
+    <t>09-12-2025 17:53:14</t>
+  </si>
+  <si>
+    <t>09-12-2025 08:45:30</t>
+  </si>
+  <si>
+    <t>09-12-2025 07:17:57</t>
+  </si>
+  <si>
+    <t>08-12-2025 17:59:46</t>
+  </si>
+  <si>
+    <t>08-12-2025 08:38:30</t>
+  </si>
+  <si>
+    <t>08-12-2025 08:30:23</t>
+  </si>
+  <si>
+    <t>08-12-2025 06:29:08</t>
+  </si>
+  <si>
+    <t>06-12-2025 22:36:19</t>
+  </si>
+  <si>
+    <t>05-12-2025 08:40:35</t>
+  </si>
+  <si>
+    <t>03-12-2025 09:04:40</t>
+  </si>
+  <si>
+    <t>03-12-2025 07:57:35</t>
+  </si>
+  <si>
+    <t>03-12-2025 07:47:12</t>
+  </si>
+  <si>
+    <t>03-12-2025 07:22:40</t>
+  </si>
+  <si>
+    <t>02-12-2025 08:22:13</t>
+  </si>
+  <si>
+    <t>01-12-2025 21:31:08</t>
+  </si>
+  <si>
+    <t>01-12-2025 14:55:30</t>
+  </si>
+  <si>
+    <t>01-12-2025 14:06:49</t>
+  </si>
+  <si>
+    <t>01-12-2025 07:24:28</t>
+  </si>
+  <si>
+    <t>01-12-2025 06:42:33</t>
+  </si>
+  <si>
+    <t>31-12-2025 20:24:42</t>
+  </si>
+  <si>
+    <t>31-12-2025 00:41:12</t>
+  </si>
+  <si>
+    <t>30-12-2025 07:14:38</t>
+  </si>
+  <si>
+    <t>28-12-2025 06:25:10</t>
+  </si>
+  <si>
+    <t>27-12-2025 02:10:54</t>
+  </si>
+  <si>
+    <t>26-12-2025 07:03:56</t>
+  </si>
+  <si>
+    <t>25-12-2025 06:18:30</t>
+  </si>
+  <si>
+    <t>24-12-2025 05:13:43</t>
+  </si>
+  <si>
+    <t>23-12-2025 01:43:17</t>
+  </si>
+  <si>
+    <t>22-12-2025 18:59:15</t>
+  </si>
+  <si>
+    <t>22-12-2025 08:49:14</t>
+  </si>
+  <si>
+    <t>22-12-2025 07:56:58</t>
+  </si>
+  <si>
+    <t>21-12-2025 11:38:58</t>
+  </si>
+  <si>
+    <t>21-12-2025 07:01:29</t>
+  </si>
+  <si>
+    <t>20-12-2025 06:09:52</t>
+  </si>
+  <si>
+    <t>19-12-2025 21:08:06</t>
+  </si>
+  <si>
+    <t>19-12-2025 08:18:35</t>
+  </si>
+  <si>
+    <t>18-12-2025 20:57:15</t>
+  </si>
+  <si>
+    <t>18-12-2025 02:42:30</t>
+  </si>
+  <si>
+    <t>18-12-2025 01:27:27</t>
+  </si>
+  <si>
+    <t>17-12-2025 20:46:21</t>
+  </si>
+  <si>
+    <t>17-12-2025 08:37:33</t>
+  </si>
+  <si>
+    <t>16-12-2025 23:17:49</t>
+  </si>
+  <si>
+    <t>16-12-2025 19:32:15</t>
+  </si>
+  <si>
+    <t>16-12-2025 01:10:45</t>
+  </si>
+  <si>
+    <t>15-12-2025 23:28:26</t>
+  </si>
+  <si>
+    <t>15-12-2025 17:49:28</t>
+  </si>
+  <si>
+    <t>15-12-2025 09:04:38</t>
+  </si>
+  <si>
+    <t>15-12-2025 08:53:35</t>
+  </si>
+  <si>
+    <t>14-12-2025 02:26:11</t>
+  </si>
+  <si>
+    <t>12-12-2025 03:59:35</t>
+  </si>
+  <si>
+    <t>12-12-2025 01:46:15</t>
+  </si>
+  <si>
+    <t>11-12-2025 21:57:43</t>
+  </si>
+  <si>
+    <t>11-12-2025 20:54:43</t>
+  </si>
+  <si>
+    <t>11-12-2025 08:50:00</t>
+  </si>
+  <si>
+    <t>11-12-2025 08:33:49</t>
+  </si>
+  <si>
+    <t>11-12-2025 01:09:56</t>
+  </si>
+  <si>
+    <t>10-12-2025 18:01:35</t>
+  </si>
+  <si>
+    <t>10-12-2025 05:15:31</t>
+  </si>
+  <si>
+    <t>10-12-2025 01:18:45</t>
+  </si>
+  <si>
+    <t>09-12-2025 17:57:22</t>
+  </si>
+  <si>
+    <t>09-12-2025 17:56:45</t>
+  </si>
+  <si>
+    <t>09-12-2025 08:30:25</t>
+  </si>
+  <si>
+    <t>09-12-2025 05:27:17</t>
+  </si>
+  <si>
+    <t>08-12-2025 22:43:12</t>
+  </si>
+  <si>
+    <t>08-12-2025 17:48:54</t>
+  </si>
+  <si>
+    <t>08-12-2025 09:51:23</t>
+  </si>
+  <si>
+    <t>08-12-2025 07:50:42</t>
+  </si>
+  <si>
+    <t>07-12-2025 03:47:14</t>
+  </si>
+  <si>
+    <t>06-12-2025 12:29:43</t>
+  </si>
+  <si>
+    <t>06-12-2025 08:53:12</t>
+  </si>
+  <si>
+    <t>05-12-2025 08:39:18</t>
+  </si>
+  <si>
+    <t>04-12-2025 17:47:39</t>
+  </si>
+  <si>
+    <t>04-12-2025 08:37:46</t>
+  </si>
+  <si>
+    <t>03-12-2025 19:05:15</t>
+  </si>
+  <si>
+    <t>03-12-2025 17:42:09</t>
+  </si>
+  <si>
+    <t>03-12-2025 08:31:08</t>
+  </si>
+  <si>
+    <t>02-12-2025 01:12:28</t>
+  </si>
+  <si>
+    <t>01-12-2025 21:31:52</t>
+  </si>
+  <si>
+    <t>01-12-2025 21:30:21</t>
+  </si>
+  <si>
+    <t>01-12-2025 08:43:08</t>
+  </si>
+  <si>
+    <t>01-12-2025 06:16:00</t>
+  </si>
+  <si>
+    <t>31-12-2025 22:05:51</t>
+  </si>
+  <si>
+    <t>31-12-2025 20:24:17</t>
+  </si>
+  <si>
+    <t>31-12-2025 19:12:25</t>
+  </si>
+  <si>
+    <t>30-12-2025 21:45:08</t>
+  </si>
+  <si>
+    <t>30-12-2025 01:03:11</t>
+  </si>
+  <si>
+    <t>29-12-2025 21:55:57</t>
+  </si>
+  <si>
+    <t>28-12-2025 07:50:52</t>
+  </si>
+  <si>
+    <t>28-12-2025 06:53:41</t>
+  </si>
+  <si>
+    <t>28-12-2025 02:55:58</t>
+  </si>
+  <si>
+    <t>27-12-2025 03:30:01</t>
+  </si>
+  <si>
+    <t>26-12-2025 17:51:08</t>
+  </si>
+  <si>
+    <t>24-12-2025 21:23:54</t>
+  </si>
+  <si>
+    <t>24-12-2025 08:38:06</t>
+  </si>
+  <si>
+    <t>23-12-2025 08:52:40</t>
+  </si>
+  <si>
+    <t>23-12-2025 07:03:03</t>
+  </si>
+  <si>
+    <t>23-12-2025 06:05:29</t>
+  </si>
+  <si>
+    <t>22-12-2025 23:18:53</t>
+  </si>
+  <si>
+    <t>22-12-2025 18:58:39</t>
+  </si>
+  <si>
+    <t>21-12-2025 11:39:42</t>
+  </si>
+  <si>
+    <t>20-12-2025 21:47:47</t>
+  </si>
+  <si>
+    <t>20-12-2025 19:15:40</t>
+  </si>
+  <si>
+    <t>19-12-2025 08:13:21</t>
+  </si>
+  <si>
+    <t>18-12-2025 18:15:55</t>
+  </si>
+  <si>
+    <t>16-12-2025 17:48:24</t>
+  </si>
+  <si>
+    <t>15-12-2025 09:04:18</t>
+  </si>
+  <si>
+    <t>14-12-2025 18:08:48</t>
+  </si>
+  <si>
+    <t>14-12-2025 02:31:28</t>
+  </si>
+  <si>
+    <t>13-12-2025 17:53:36</t>
+  </si>
+  <si>
+    <t>13-12-2025 00:19:52</t>
+  </si>
+  <si>
+    <t>12-12-2025 23:46:34</t>
+  </si>
+  <si>
+    <t>12-12-2025 19:19:09</t>
+  </si>
+  <si>
+    <t>12-12-2025 04:00:19</t>
+  </si>
+  <si>
+    <t>12-12-2025 03:32:07</t>
+  </si>
+  <si>
+    <t>11-12-2025 17:48:29</t>
+  </si>
+  <si>
+    <t>11-12-2025 08:14:35</t>
+  </si>
+  <si>
+    <t>11-12-2025 01:35:22</t>
+  </si>
+  <si>
+    <t>10-12-2025 17:38:53</t>
+  </si>
+  <si>
+    <t>10-12-2025 03:49:05</t>
+  </si>
+  <si>
+    <t>09-12-2025 18:03:46</t>
+  </si>
+  <si>
+    <t>09-12-2025 17:57:31</t>
+  </si>
+  <si>
+    <t>09-12-2025 08:14:07</t>
+  </si>
+  <si>
+    <t>08-12-2025 21:48:11</t>
+  </si>
+  <si>
+    <t>08-12-2025 17:55:43</t>
+  </si>
+  <si>
+    <t>08-12-2025 08:56:58</t>
+  </si>
+  <si>
+    <t>30-12-2025 11:46:27</t>
+  </si>
+  <si>
+    <t>30-12-2025 18:02:59</t>
+  </si>
+  <si>
+    <t>30-12-2025 18:15:47</t>
+  </si>
+  <si>
+    <t>28-12-2025 18:48:26</t>
+  </si>
+  <si>
+    <t>28-12-2025 07:38:19</t>
+  </si>
+  <si>
+    <t>24-12-2025 09:54:09</t>
+  </si>
+  <si>
+    <t>24-12-2025 10:54:51</t>
+  </si>
+  <si>
+    <t>20-12-2025 16:55:39</t>
+  </si>
+  <si>
+    <t>20-12-2025 13:59:17</t>
+  </si>
+  <si>
+    <t>17-12-2025 09:02:58</t>
+  </si>
+  <si>
+    <t>16-12-2025 18:32:42</t>
+  </si>
+  <si>
+    <t>16-12-2025 08:46:59</t>
+  </si>
+  <si>
+    <t>15-12-2025 18:00:37</t>
+  </si>
+  <si>
+    <t>15-12-2025 08:40:49</t>
+  </si>
+  <si>
+    <t>13-12-2025 17:59:05</t>
+  </si>
+  <si>
+    <t>12-12-2025 18:09:32</t>
+  </si>
+  <si>
+    <t>10-12-2025 17:47:19</t>
+  </si>
+  <si>
+    <t>10-12-2025 08:48:59</t>
+  </si>
+  <si>
+    <t>09-12-2025 18:11:40</t>
+  </si>
+  <si>
+    <t>03-12-2025 15:14:14</t>
+  </si>
+  <si>
+    <t>03-12-2025 15:51:56</t>
+  </si>
+  <si>
+    <t>03-12-2025 12:47:18</t>
+  </si>
+  <si>
+    <t>02-12-2025 19:31:12</t>
+  </si>
+  <si>
+    <t>02-12-2025 19:14:32</t>
+  </si>
+  <si>
+    <t>02-12-2025 10:22:28</t>
+  </si>
+  <si>
+    <t>30-11-2025 14:19:22</t>
+  </si>
+  <si>
+    <t>30-11-2025 13:43:59</t>
+  </si>
+  <si>
+    <t>30-11-2025 09:22:13</t>
+  </si>
+  <si>
+    <t>30-11-2025 08:29:17</t>
+  </si>
+  <si>
+    <t>30-11-2025 03:47:12</t>
+  </si>
+  <si>
+    <t>30-11-2025 06:37:58</t>
   </si>
   <si>
     <t>31-12-2025
@@ -135,6 +783,159 @@
 19:02:24</t>
   </si>
   <si>
+    <t>31-12-2025 23:32:46</t>
+  </si>
+  <si>
+    <t>31-12-2025 21:54:40</t>
+  </si>
+  <si>
+    <t>31-12-2025 21:28:23</t>
+  </si>
+  <si>
+    <t>31-12-2025 18:48:31</t>
+  </si>
+  <si>
+    <t>30-12-2025 17:51:15</t>
+  </si>
+  <si>
+    <t>30-12-2025 03:55:23</t>
+  </si>
+  <si>
+    <t>29-12-2025 08:46:08</t>
+  </si>
+  <si>
+    <t>28-12-2025 01:27:56</t>
+  </si>
+  <si>
+    <t>27-12-2025 20:59:36</t>
+  </si>
+  <si>
+    <t>27-12-2025 18:06:04</t>
+  </si>
+  <si>
+    <t>26-12-2025 21:33:28</t>
+  </si>
+  <si>
+    <t>26-12-2025 17:21:38</t>
+  </si>
+  <si>
+    <t>26-12-2025 09:04:40</t>
+  </si>
+  <si>
+    <t>25-12-2025 05:09:32</t>
+  </si>
+  <si>
+    <t>25-12-2025 04:35:21</t>
+  </si>
+  <si>
+    <t>24-12-2025 17:46:40</t>
+  </si>
+  <si>
+    <t>21-12-2025 19:48:30</t>
+  </si>
+  <si>
+    <t>24-12-2025 05:08:06</t>
+  </si>
+  <si>
+    <t>24-12-2025 03:25:09</t>
+  </si>
+  <si>
+    <t>23-12-2025 17:53:56</t>
+  </si>
+  <si>
+    <t>23-12-2025 08:38:01</t>
+  </si>
+  <si>
+    <t>23-12-2025 05:51:04</t>
+  </si>
+  <si>
+    <t>23-12-2025 05:34:06</t>
+  </si>
+  <si>
+    <t>21-12-2025 19:25:16</t>
+  </si>
+  <si>
+    <t>20-12-2025 08:23:00</t>
+  </si>
+  <si>
+    <t>20-12-2025 01:08:38</t>
+  </si>
+  <si>
+    <t>19-12-2025 18:15:56</t>
+  </si>
+  <si>
+    <t>19-12-2025 02:05:47</t>
+  </si>
+  <si>
+    <t>19-12-2025 01:30:00</t>
+  </si>
+  <si>
+    <t>18-12-2025 18:35:45</t>
+  </si>
+  <si>
+    <t>18-12-2025 08:39:13</t>
+  </si>
+  <si>
+    <t>17-12-2025 01:03:39</t>
+  </si>
+  <si>
+    <t>16-12-2025 17:54:19</t>
+  </si>
+  <si>
+    <t>16-12-2025 08:23:18</t>
+  </si>
+  <si>
+    <t>15-12-2025 18:05:04</t>
+  </si>
+  <si>
+    <t>15-12-2025 04:04:56</t>
+  </si>
+  <si>
+    <t>15-12-2025 00:09:35</t>
+  </si>
+  <si>
+    <t>13-12-2025 17:47:38</t>
+  </si>
+  <si>
+    <t>13-12-2025 09:01:47</t>
+  </si>
+  <si>
+    <t>12-12-2025 08:39:02</t>
+  </si>
+  <si>
+    <t>10-12-2025 08:34:48</t>
+  </si>
+  <si>
+    <t>07-12-2025 20:43:49</t>
+  </si>
+  <si>
+    <t>09-12-2025 17:58:08</t>
+  </si>
+  <si>
+    <t>09-12-2025 08:57:47</t>
+  </si>
+  <si>
+    <t>08-12-2025 08:54:14</t>
+  </si>
+  <si>
+    <t>06-12-2025 12:34:29</t>
+  </si>
+  <si>
+    <t>06-12-2025 07:01:41</t>
+  </si>
+  <si>
+    <t>05-12-2025 02:10:52</t>
+  </si>
+  <si>
+    <t>05-12-2025 01:31:00</t>
+  </si>
+  <si>
+    <t>02-12-2025 06:36:06</t>
+  </si>
+  <si>
+    <t>01-12-2025 02:56:06</t>
+  </si>
+  <si>
     <t>30-12-2025
 14:01:10</t>
   </si>
@@ -267,6 +1068,785 @@
 23:20:48</t>
   </si>
   <si>
+    <t>239400L13261225162433 /
+5153982362</t>
+  </si>
+  <si>
+    <t>239400L04261225092301 /
+5152674892</t>
+  </si>
+  <si>
+    <t>536647008251225205401 /
+5151448293</t>
+  </si>
+  <si>
+    <t>536647015241225211341 /
+5148014313</t>
+  </si>
+  <si>
+    <t>536647023241225120943 /
+5146375271</t>
+  </si>
+  <si>
+    <t>536647012231225211518 /
+5144751088</t>
+  </si>
+  <si>
+    <t>PKT000000294026035</t>
+  </si>
+  <si>
+    <t>536647023231225114029 /
+5143122040</t>
+  </si>
+  <si>
+    <t>536647023231225063059 /
+5142384912</t>
+  </si>
+  <si>
+    <t>536647008221225175226 /
+5141174874</t>
+  </si>
+  <si>
+    <t>PKT000000293847009</t>
+  </si>
+  <si>
+    <t>536647022221225121610 /
+5140244006</t>
+  </si>
+  <si>
+    <t>0010002512212221158070
+/ 5138862811</t>
+  </si>
+  <si>
+    <t>0010012512211802596955
+/ 5138179862</t>
+  </si>
+  <si>
+    <t>PKT000000293702881</t>
+  </si>
+  <si>
+    <t>239400L10211225173417 /
+5138087476</t>
+  </si>
+  <si>
+    <t>239400L05201225113201 /
+5133767761</t>
+  </si>
+  <si>
+    <t>536647005191225180208 /
+5131766575</t>
+  </si>
+  <si>
+    <t>PKT000000293342961</t>
+  </si>
+  <si>
+    <t>536647022191225140050 /
+5131066624</t>
+  </si>
+  <si>
+    <t>536647016191225122904 /
+5130830524</t>
+  </si>
+  <si>
+    <t>536647022191225083750 /
+5130212542</t>
+  </si>
+  <si>
+    <t>536647007181225180708 /
+5128809500</t>
+  </si>
+  <si>
+    <t>536647009181225143318 /
+5128198071</t>
+  </si>
+  <si>
+    <t>PKT000000293148631</t>
+  </si>
+  <si>
+    <t>536647024181225083220 /
+5127264249</t>
+  </si>
+  <si>
+    <t>536647008181225070340 /
+5127084470</t>
+  </si>
+  <si>
+    <t>536647027181225060953 /
+5127011657</t>
+  </si>
+  <si>
+    <t>536647005171225175427 /
+5125797867</t>
+  </si>
+  <si>
+    <t>239400L13171225115527 /
+5124836806</t>
+  </si>
+  <si>
+    <t>PKT000000292978268</t>
+  </si>
+  <si>
+    <t>250357233010 /
+5124341438</t>
+  </si>
+  <si>
+    <t>250357185912 /
+5124133241</t>
+  </si>
+  <si>
+    <t>536647024171225060302 /
+5124037115</t>
+  </si>
+  <si>
+    <t>536647008161225180254 /
+5122905035</t>
+  </si>
+  <si>
+    <t>536647021161225104743 /
+5121753212</t>
+  </si>
+  <si>
+    <t>PKT000000292785493</t>
+  </si>
+  <si>
+    <t>536647008151225175023 /
+5119945847</t>
+  </si>
+  <si>
+    <t>536647021151225123156 /
+5119081382</t>
+  </si>
+  <si>
+    <t>536647011151225112942 /
+5118908676</t>
+  </si>
+  <si>
+    <t>536647022151225081302 /
+5118390893</t>
+  </si>
+  <si>
+    <t>PKT000000292645092</t>
+  </si>
+  <si>
+    <t>536647021151225063611 /
+5118225317</t>
+  </si>
+  <si>
+    <t>239400L04141225150321 /
+5116315683</t>
+  </si>
+  <si>
+    <t>239400L11121225201546 /
+5110713354</t>
+  </si>
+  <si>
+    <t>239400L04121225123308 /
+5109353528</t>
+  </si>
+  <si>
+    <t>536647013121225114903 /
+5109223403</t>
+  </si>
+  <si>
+    <t>536647024121225104806 /
+5109054798</t>
+  </si>
+  <si>
+    <t>536647008121225101515 /
+5108958255</t>
+  </si>
+  <si>
+    <t>536647026121225084848 /
+5108723663</t>
+  </si>
+  <si>
+    <t>PKT000000292112548</t>
+  </si>
+  <si>
+    <t>536647026111225085103 /
+5105642966</t>
+  </si>
+  <si>
+    <t>536647011101225174826 /
+5104055725</t>
+  </si>
+  <si>
+    <t>536647027101225083225 /
+5102546511</t>
+  </si>
+  <si>
+    <t>536647012091225175314 /
+5101040151</t>
+  </si>
+  <si>
+    <t>536647030091225084530 /
+5099589893</t>
+  </si>
+  <si>
+    <t>PKT000000291615337</t>
+  </si>
+  <si>
+    <t>536647011081225175946 /
+5098113829</t>
+  </si>
+  <si>
+    <t>536647021081225083830 /
+5096646598</t>
+  </si>
+  <si>
+    <t>PKT000000291467698</t>
+  </si>
+  <si>
+    <t>536647024081225062908 /
+5096395555</t>
+  </si>
+  <si>
+    <t>239400L13061225223619 /
+5092545771</t>
+  </si>
+  <si>
+    <t>0010022512050843423940
+/ 5086848432</t>
+  </si>
+  <si>
+    <t>536647021031225090440 /
+5080732569</t>
+  </si>
+  <si>
+    <t>536647016031225075735 /
+5080572941</t>
+  </si>
+  <si>
+    <t>PKT000000290581609</t>
+  </si>
+  <si>
+    <t>536647030031225072240 /
+5080500690</t>
+  </si>
+  <si>
+    <t>536647021021225082213 /
+5077637852</t>
+  </si>
+  <si>
+    <t>536647010011225213108 /
+5076700766</t>
+  </si>
+  <si>
+    <t>536647021011225145530 /
+5075597928</t>
+  </si>
+  <si>
+    <t>536647014011225140649 /
+5075459362</t>
+  </si>
+  <si>
+    <t>536647023011225072428 /
+5074427843</t>
+  </si>
+  <si>
+    <t>PKT000000290242582</t>
+  </si>
+  <si>
+    <t>PKT000000295506495</t>
+  </si>
+  <si>
+    <t>536647026311225004112 /
+5168630472</t>
+  </si>
+  <si>
+    <t>536647026301225071438 /
+5165888504</t>
+  </si>
+  <si>
+    <t>536647028281225062510 /
+5159175762</t>
+  </si>
+  <si>
+    <t>536647002271225021054 /
+5155415280</t>
+  </si>
+  <si>
+    <t>536647026261225070356 /
+5152348009</t>
+  </si>
+  <si>
+    <t>536647024251225061830 /
+5148835667</t>
+  </si>
+  <si>
+    <t>536647028241225051343 /
+5145402448</t>
+  </si>
+  <si>
+    <t>536647028231225014317 /
+5142122999</t>
+  </si>
+  <si>
+    <t>PKT000000293871456</t>
+  </si>
+  <si>
+    <t>250361018710 /
+5139662505</t>
+  </si>
+  <si>
+    <t>250360988229 /
+5139544963</t>
+  </si>
+  <si>
+    <t>PKT000000293644518</t>
+  </si>
+  <si>
+    <t>536647024211225070129 /
+5136326139</t>
+  </si>
+  <si>
+    <t>536647027201225060952 /
+5133011202</t>
+  </si>
+  <si>
+    <t>536647015191225210806 /
+5132282984</t>
+  </si>
+  <si>
+    <t>536647016191225081835 /
+5130167764</t>
+  </si>
+  <si>
+    <t>536647015181225205715 /
+5129269343</t>
+  </si>
+  <si>
+    <t>PKT000000293084777</t>
+  </si>
+  <si>
+    <t>536647023181225012727 /
+5126751361</t>
+  </si>
+  <si>
+    <t>536647025171225204621 /
+5126267258</t>
+  </si>
+  <si>
+    <t>536647021171225083733 /
+5124308498</t>
+  </si>
+  <si>
+    <t>536647023161225231749 /
+5123618861</t>
+  </si>
+  <si>
+    <t>536647015161225193215 /
+5123157807</t>
+  </si>
+  <si>
+    <t>536647027161225011045 /
+5120869270</t>
+  </si>
+  <si>
+    <t>536647013151225232826 /
+5120728638</t>
+  </si>
+  <si>
+    <t>536647009151225174928 /
+5119942978</t>
+  </si>
+  <si>
+    <t>PKT000000292652384</t>
+  </si>
+  <si>
+    <t>536647023151225085335 /
+5118490189</t>
+  </si>
+  <si>
+    <t>536647024141225022611 /
+5114745401</t>
+  </si>
+  <si>
+    <t>PKT000000292091513</t>
+  </si>
+  <si>
+    <t>536647023121225014615 /
+5108141147</t>
+  </si>
+  <si>
+    <t>0010002512112159514369
+/ 5107776310</t>
+  </si>
+  <si>
+    <t>0010022512112055015382
+/ 5107639997</t>
+  </si>
+  <si>
+    <t>536647030111225085000 /
+5105640212</t>
+  </si>
+  <si>
+    <t>0010012512110836532272
+/ 5105605818</t>
+  </si>
+  <si>
+    <t>0070010181112250109568
+/ 5105024846</t>
+  </si>
+  <si>
+    <t>536647013101225180135 /
+5104095615</t>
+  </si>
+  <si>
+    <t>536647022101225051531 /
+5102221136</t>
+  </si>
+  <si>
+    <t>312027L20101225011845 /
+5101983145</t>
+  </si>
+  <si>
+    <t>536647011091225175722 /
+5101048441</t>
+  </si>
+  <si>
+    <t>PKT000000291705504</t>
+  </si>
+  <si>
+    <t>536647023091225083025 /
+5099555149</t>
+  </si>
+  <si>
+    <t>PKT000000291607764</t>
+  </si>
+  <si>
+    <t>536647030081225224312 /
+5098789031</t>
+  </si>
+  <si>
+    <t>536647010081225174854 /
+5098083064</t>
+  </si>
+  <si>
+    <t>536647031081225095123 /
+5096835225</t>
+  </si>
+  <si>
+    <t>536647012081225075042 /
+5096534372</t>
+  </si>
+  <si>
+    <t>536647023071225034714 /
+5092984736</t>
+  </si>
+  <si>
+    <t>PKT000000291151300</t>
+  </si>
+  <si>
+    <t>536647024061225085312 /
+5090132929</t>
+  </si>
+  <si>
+    <t>536647031051225083918 /
+5086837627</t>
+  </si>
+  <si>
+    <t>536647007041225174739 /
+5085228092</t>
+  </si>
+  <si>
+    <t>536647030041225083746 /
+5083699467</t>
+  </si>
+  <si>
+    <t>PKT000000290683966</t>
+  </si>
+  <si>
+    <t>536647014031225174209 /
+5082105266</t>
+  </si>
+  <si>
+    <t>536647026031225083108 /
+5080648803</t>
+  </si>
+  <si>
+    <t>536647026021225011228 /
+5077099178</t>
+  </si>
+  <si>
+    <t>PKT000000290379919</t>
+  </si>
+  <si>
+    <t>536647007011225213021 /
+5076699844</t>
+  </si>
+  <si>
+    <t>536647032011225084308 /
+5074613063</t>
+  </si>
+  <si>
+    <t>536647030011225061600 /
+5074317416</t>
+  </si>
+  <si>
+    <t>536647029311225220551 /
+5171468334</t>
+  </si>
+  <si>
+    <t>PKT000000295506449</t>
+  </si>
+  <si>
+    <t>536647009311225191225 /
+5171053962</t>
+  </si>
+  <si>
+    <t>536647010301225214508 /
+5168322084</t>
+  </si>
+  <si>
+    <t>312027L04301225010311 /
+5165500610</t>
+  </si>
+  <si>
+    <t>01B2005677189403779073
+/ 5165201405</t>
+  </si>
+  <si>
+    <t>01B2005102644473110528
+/ 5159326590</t>
+  </si>
+  <si>
+    <t>312027L15281225065341 /
+5159216806</t>
+  </si>
+  <si>
+    <t>536647026281225025558 /
+5158956012</t>
+  </si>
+  <si>
+    <t>536647026271225033001 /
+5155499496</t>
+  </si>
+  <si>
+    <t>536647007261225175108 /
+5154276350</t>
+  </si>
+  <si>
+    <t>536647010241225212354 /
+5148040083</t>
+  </si>
+  <si>
+    <t>536647026241225083806 /
+5145752199</t>
+  </si>
+  <si>
+    <t>250361764664 /
+5142656956</t>
+  </si>
+  <si>
+    <t>250361710671 /
+5142429680</t>
+  </si>
+  <si>
+    <t>01I2003263697740664832 /
+5142357419</t>
+  </si>
+  <si>
+    <t>536647009221225231853 /
+5141939168</t>
+  </si>
+  <si>
+    <t>PKT000000293871362</t>
+  </si>
+  <si>
+    <t>PKT000000293644663</t>
+  </si>
+  <si>
+    <t>536647028201225214747 /
+5135617450</t>
+  </si>
+  <si>
+    <t>536647007201225191540 /
+5135225671</t>
+  </si>
+  <si>
+    <t>536647012191225081321 /
+5130155469</t>
+  </si>
+  <si>
+    <t>536647007181225181555 /
+5128836133</t>
+  </si>
+  <si>
+    <t>536647011161225174824 /
+5122862626</t>
+  </si>
+  <si>
+    <t>PKT000000292652336</t>
+  </si>
+  <si>
+    <t>536647024141225180848 /
+5116935916</t>
+  </si>
+  <si>
+    <t>536647026141225023128 /
+5114751719</t>
+  </si>
+  <si>
+    <t>536647007131225175336 /
+5113623139</t>
+  </si>
+  <si>
+    <t>330107L01131225001952 /
+5111221378</t>
+  </si>
+  <si>
+    <t>312027L17121225234634 /
+5111168242</t>
+  </si>
+  <si>
+    <t>536647006121225191909 /
+5110542315</t>
+  </si>
+  <si>
+    <t>PKT000000292091540</t>
+  </si>
+  <si>
+    <t>536647030121225033207 /
+5108252621</t>
+  </si>
+  <si>
+    <t>536647009111225174829 /
+5107118845</t>
+  </si>
+  <si>
+    <t>536647030111225081435 /
+5105552192</t>
+  </si>
+  <si>
+    <t>536647030111225013522 /
+5105054458</t>
+  </si>
+  <si>
+    <t>536647011101225173853 /
+5104027117</t>
+  </si>
+  <si>
+    <t>536647028101225034905 /
+5102140573</t>
+  </si>
+  <si>
+    <t>536647006091225180346 /
+5101072128</t>
+  </si>
+  <si>
+    <t>PKT000000291705617</t>
+  </si>
+  <si>
+    <t>536647029091225081407 /
+5099517598</t>
+  </si>
+  <si>
+    <t>536647028081225214811 /
+5098677128</t>
+  </si>
+  <si>
+    <t>536647011081225175543 /
+5098102830</t>
+  </si>
+  <si>
+    <t>536647034081225085658 /
+5096691192</t>
+  </si>
+  <si>
+    <t>25030331401973_536408</t>
+  </si>
+  <si>
+    <t>536406L082512301802592_536406</t>
+  </si>
+  <si>
+    <t>312038006301225181547_312038</t>
+  </si>
+  <si>
+    <t>250366473079_313003</t>
+  </si>
+  <si>
+    <t>0010032512280738234262_103002</t>
+  </si>
+  <si>
+    <t>25030130880452_536408</t>
+  </si>
+  <si>
+    <t>536406L082512241054516_5364064000107610716640001074984912</t>
+  </si>
+  <si>
+    <t>0010022512201656232089_311003</t>
+  </si>
+  <si>
+    <t>0010022512201400342568_320112</t>
+  </si>
+  <si>
+    <t>536647029171225090258_536647</t>
+  </si>
+  <si>
+    <t>536647005161225183242_536647</t>
+  </si>
+  <si>
+    <t>536647030161225084659_536647</t>
+  </si>
+  <si>
+    <t>536647006151225180037_53664740001069901253</t>
+  </si>
+  <si>
+    <t>536647026151225084049_536647</t>
+  </si>
+  <si>
+    <t>536647007131225175905_536647</t>
+  </si>
+  <si>
+    <t>536647007121225180932_536647</t>
+  </si>
+  <si>
+    <t>536647011101225174719_536647</t>
+  </si>
+  <si>
+    <t>536647030101225084859_536647</t>
+  </si>
+  <si>
+    <t>536647009091225181140_53664740001065179175</t>
+  </si>
+  <si>
+    <t>536406L122512031514146_536406</t>
+  </si>
+  <si>
+    <t>536647034031225155156_536647</t>
+  </si>
+  <si>
+    <t>25030329076437_53640840001059569828</t>
+  </si>
+  <si>
+    <t>312038006021225193112_312038</t>
+  </si>
+  <si>
+    <t>536406L122512021914320_536406</t>
+  </si>
+  <si>
+    <t>25030428981303_536408</t>
+  </si>
+  <si>
+    <t>239400L13301125141922_239400</t>
+  </si>
+  <si>
+    <t>251130134504295806571_536454</t>
+  </si>
+  <si>
+    <t>251130092249130800554_536454</t>
+  </si>
+  <si>
+    <t>239400L01301125082917_239400</t>
+  </si>
+  <si>
+    <t>11520251130034712447_312027</t>
+  </si>
+  <si>
+    <t>536647028301125063758_536647</t>
+  </si>
+  <si>
     <t>001001251231191
 0453038_536618</t>
   </si>
@@ -359,6 +1939,231 @@
 190224_536647</t>
   </si>
   <si>
+    <t>536647022311225233246_536647</t>
+  </si>
+  <si>
+    <t>312027L05311225215440_312027</t>
+  </si>
+  <si>
+    <t>312027L12311225212823_31202740001083735753</t>
+  </si>
+  <si>
+    <t>536647012311225184831_53664740001083621527</t>
+  </si>
+  <si>
+    <t>536647015301225175115_536647</t>
+  </si>
+  <si>
+    <t>536647022301225035523_5366474000108219457640001081838382</t>
+  </si>
+  <si>
+    <t>536647023291225084608_53664740001081419748</t>
+  </si>
+  <si>
+    <t>536647024281225012756_53664740001080560438</t>
+  </si>
+  <si>
+    <t>536647021271225205936_53664740001080440760</t>
+  </si>
+  <si>
+    <t>536647015271225180604_53664740001080190537</t>
+  </si>
+  <si>
+    <t>536647014261225213328_53664740001079410816</t>
+  </si>
+  <si>
+    <t>536647015261225172138_53664740001079318590</t>
+  </si>
+  <si>
+    <t>536647023261225090440_536647</t>
+  </si>
+  <si>
+    <t>312027e07251225050932_31202740001078034404</t>
+  </si>
+  <si>
+    <t>312027L12251225043521_31202740001077866686</t>
+  </si>
+  <si>
+    <t>536647015241225174640_536647</t>
+  </si>
+  <si>
+    <t>25031030653310_536409</t>
+  </si>
+  <si>
+    <t>536647001241225050806_5366474000107717053440001077168945</t>
+  </si>
+  <si>
+    <t>536647025241225032509_536647</t>
+  </si>
+  <si>
+    <t>536647015231225175356_53664740001076849467</t>
+  </si>
+  <si>
+    <t>536647025231225083801_536647</t>
+  </si>
+  <si>
+    <t>312027L05231225055104_312027</t>
+  </si>
+  <si>
+    <t>312027L17231225053406_31202740001076334479</t>
+  </si>
+  <si>
+    <t>312038006211225192516_312038</t>
+  </si>
+  <si>
+    <t>25030330529360_536408</t>
+  </si>
+  <si>
+    <t>536647022201225010838_53664740001073893023</t>
+  </si>
+  <si>
+    <t>536647016191225181556_536647</t>
+  </si>
+  <si>
+    <t>312027L05191225020547_312027</t>
+  </si>
+  <si>
+    <t>312027L12191225013000_31202740001073078491</t>
+  </si>
+  <si>
+    <t>536647016181225183545_53664740001072808360</t>
+  </si>
+  <si>
+    <t>536647021181225083913_536647</t>
+  </si>
+  <si>
+    <t>536647022171225010339_53664740001071444213</t>
+  </si>
+  <si>
+    <t>536647016161225175419_53664740001071114023</t>
+  </si>
+  <si>
+    <t>536647022161225082318_53664740001070669986</t>
+  </si>
+  <si>
+    <t>536647015151225180504_53664740001070335123</t>
+  </si>
+  <si>
+    <t>536647021151225040456_53664740001069794921</t>
+  </si>
+  <si>
+    <t>536647015151225000935_536647</t>
+  </si>
+  <si>
+    <t>536647016131225174738_53664740001068665285</t>
+  </si>
+  <si>
+    <t>536647027131225090147_536647</t>
+  </si>
+  <si>
+    <t>536647027121225083902_536647</t>
+  </si>
+  <si>
+    <t>536647027101225083448_536647</t>
+  </si>
+  <si>
+    <t>25031029447001_536409</t>
+  </si>
+  <si>
+    <t>536647016091225175808_536647</t>
+  </si>
+  <si>
+    <t>536647028091225085747_53664740001064202259</t>
+  </si>
+  <si>
+    <t>536647021081225085414_53664740001063478207</t>
+  </si>
+  <si>
+    <t>536647002061225123429_536647</t>
+  </si>
+  <si>
+    <t>25030129314897_53640840001061099971</t>
+  </si>
+  <si>
+    <t>01M1996681655636774912_536343</t>
+  </si>
+  <si>
+    <t>312027L14051225013100_31202740001058820650</t>
+  </si>
+  <si>
+    <t>536647014021225063606_53664740001057433839</t>
+  </si>
+  <si>
+    <t>536647027011225025606_536647</t>
+  </si>
+  <si>
+    <t>20251231063430</t>
+  </si>
+  <si>
+    <t>20251229090839</t>
+  </si>
+  <si>
+    <t>20251229004024</t>
+  </si>
+  <si>
+    <t>20251224082748</t>
+  </si>
+  <si>
+    <t>20251223180406</t>
+  </si>
+  <si>
+    <t>20251222103153</t>
+  </si>
+  <si>
+    <t>20251220035742</t>
+  </si>
+  <si>
+    <t>20251219133756</t>
+  </si>
+  <si>
+    <t>20251219081140</t>
+  </si>
+  <si>
+    <t>20251217192559</t>
+  </si>
+  <si>
+    <t>20251216180527</t>
+  </si>
+  <si>
+    <t>20251216143456</t>
+  </si>
+  <si>
+    <t>20251215175857</t>
+  </si>
+  <si>
+    <t>20251212180252</t>
+  </si>
+  <si>
+    <t>20251211181517</t>
+  </si>
+  <si>
+    <t>20251211084307</t>
+  </si>
+  <si>
+    <t>20251210090219</t>
+  </si>
+  <si>
+    <t>20251208174710</t>
+  </si>
+  <si>
+    <t>20251206175116</t>
+  </si>
+  <si>
+    <t>20251205175628</t>
+  </si>
+  <si>
+    <t>20251204122427</t>
+  </si>
+  <si>
+    <t>20251203171535</t>
+  </si>
+  <si>
+    <t>20251203123634</t>
+  </si>
+  <si>
+    <t>20251203083245</t>
+  </si>
+  <si>
     <t>536647001301225
 140110_536647</t>
   </si>
@@ -491,13 +2296,224 @@
 2320483_007001</t>
   </si>
   <si>
+    <t>Trip (RRN No / Trip No)</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Toll</t>
+  </si>
+  <si>
     <t>Toll Debit</t>
   </si>
   <si>
+    <t>Toll Transaction</t>
+  </si>
+  <si>
+    <t>Plaza Name:RohadTollPlaza- Lane ID:B13</t>
+  </si>
+  <si>
+    <t>Plaza Name:RohadTollPlaza- Lane ID:B04</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:8</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:15</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:23</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:12</t>
+  </si>
+  <si>
+    <t>Payment through Bharat Bill Pay</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:22</t>
+  </si>
+  <si>
+    <t>Plaza Name:Mundka Toll Plaza- Lane ID:LANE21</t>
+  </si>
+  <si>
+    <t>Plaza Name:Mundka Toll Plaza- Lane ID:LANE04</t>
+  </si>
+  <si>
+    <t>Plaza Name:RohadTollPlaza- Lane ID:B10</t>
+  </si>
+  <si>
+    <t>Plaza Name:RohadTollPlaza- Lane ID:B05</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:5</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:16</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:7</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:9</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:24</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:27</t>
+  </si>
+  <si>
+    <t>Plaza Name:GhamrojSohnaRoadTollPlaza- Lane
+ID:14</t>
+  </si>
+  <si>
+    <t>Plaza Name:GhamrojSohnaRoadTollPlaza- Lane
+ID:6</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:21</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:11</t>
+  </si>
+  <si>
+    <t>Plaza Name:RohadTollPlaza- Lane ID:B11</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:13</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:26</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:30</t>
+  </si>
+  <si>
+    <t>Plaza Name:BamlaTollPlaza- Lane ID:LANE04</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:10</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:14</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:28</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:2</t>
+  </si>
+  <si>
+    <t>Plaza Name:GhamrojSohnaRoadTollPlaza- Lane
+ID:18</t>
+  </si>
+  <si>
+    <t>Plaza Name:GhamrojSohnaRoadTollPlaza- Lane
+ID:9</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:25</t>
+  </si>
+  <si>
+    <t>Plaza Name:Mundka Toll Plaza- Lane ID:LANE14</t>
+  </si>
+  <si>
+    <t>Plaza Name:Mundka Toll Plaza- Lane ID:LANE06</t>
+  </si>
+  <si>
+    <t>Plaza Name:Mundka Toll Plaza- Lane ID:LANE16</t>
+  </si>
+  <si>
+    <t>Plaza Name:ManesarTollPlaza- Lane ID:18</t>
+  </si>
+  <si>
+    <t>Plaza Name:BadarpurfaridabadTollplaza- Lane
+ID:Lane20</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:31</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:32</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:29</t>
+  </si>
+  <si>
+    <t>Plaza Name:BadarpurfaridabadTollplaza- Lane
+ID:Lane04</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bandhwari Toll Plaza- Lane
+ID:LANE08</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bandhwari Toll Plaza- Lane
+ID:LANE20</t>
+  </si>
+  <si>
+    <t>Plaza Name:BadarpurfaridabadTollplaza- Lane
+ID:Lane15</t>
+  </si>
+  <si>
+    <t>Plaza Name:GhamrojSohnaRoadTollPlaza- Lane
+ID:15</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bandhwari Toll Plaza- Lane
+ID:LANE11</t>
+  </si>
+  <si>
+    <t>Plaza Name:BadarpurfaridabadTollplaza- Lane
+ID:Lane01</t>
+  </si>
+  <si>
+    <t>Plaza Name:BadarpurfaridabadTollplaza- Lane
+ID:Lane17</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:6</t>
+  </si>
+  <si>
+    <t>Plaza Name:Bijwasan- Lane ID:34</t>
+  </si>
+  <si>
+    <t>Puthi</t>
+  </si>
+  <si>
+    <t>Hassangarh</t>
+  </si>
+  <si>
+    <t>Asoda</t>
+  </si>
+  <si>
+    <t>Morwala Tol l Plaza</t>
+  </si>
+  <si>
+    <t>Dighal Toll Pl aza</t>
+  </si>
+  <si>
+    <t>Sarai Kale K han DME K M 0000</t>
+  </si>
+  <si>
+    <t>Kashi Plaza DME KM 58 23</t>
+  </si>
+  <si>
+    <t>Bijwasan</t>
+  </si>
+  <si>
+    <t>Rohad Toll P laza</t>
+  </si>
+  <si>
+    <t>Chandi Toll Plaza</t>
+  </si>
+  <si>
+    <t>Badarpur far idabad Toll P laza</t>
+  </si>
+  <si>
     <t>Mundka Toll Plaza</t>
-  </si>
-  <si>
-    <t>Bijwasan</t>
   </si>
   <si>
     <t>NUH</t>
@@ -513,6 +2529,18 @@
     <t>Bandhwari Toll Plaza</t>
   </si>
   <si>
+    <t>Issapur Kher i</t>
+  </si>
+  <si>
+    <t>Bandhwari T oll Plaza</t>
+  </si>
+  <si>
+    <t>Toll Debit-Bijwasan</t>
+  </si>
+  <si>
+    <t>Toll Debit-IGI-Terminal 3</t>
+  </si>
+  <si>
     <t>Rasoolpur Sikrod DME KM
 3134</t>
   </si>
@@ -526,12 +2554,42 @@
     <t>Kherki Daula Toll Plaza</t>
   </si>
   <si>
+    <t>536408</t>
+  </si>
+  <si>
+    <t>536406</t>
+  </si>
+  <si>
+    <t>312038</t>
+  </si>
+  <si>
+    <t>313003</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>311003</t>
+  </si>
+  <si>
+    <t>320112</t>
+  </si>
+  <si>
+    <t>536647</t>
+  </si>
+  <si>
+    <t>239400</t>
+  </si>
+  <si>
+    <t>536454</t>
+  </si>
+  <si>
+    <t>312027</t>
+  </si>
+  <si>
     <t>536618</t>
   </si>
   <si>
-    <t>536647</t>
-  </si>
-  <si>
     <t>312045</t>
   </si>
   <si>
@@ -544,13 +2602,13 @@
     <t>536343</t>
   </si>
   <si>
+    <t>536409</t>
+  </si>
+  <si>
     <t>320102</t>
   </si>
   <si>
     <t>216001</t>
-  </si>
-  <si>
-    <t>320112</t>
   </si>
   <si>
     <t>007001</t>
@@ -560,6 +2618,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -603,9 +2664,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,22 +2999,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -960,22 +3019,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
+        <v>679</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -983,22 +3039,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>133</v>
+        <v>680</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1006,22 +3059,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
+        <v>681</v>
       </c>
       <c r="G5">
-        <v>225</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1029,19 +3079,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
+        <v>682</v>
       </c>
       <c r="G6">
         <v>220</v>
@@ -1052,22 +3099,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
+        <v>683</v>
       </c>
       <c r="G7">
-        <v>225</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1075,22 +3119,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G8">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1098,22 +3139,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
+        <v>682</v>
       </c>
       <c r="G9">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1121,22 +3159,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>135</v>
+        <v>682</v>
       </c>
       <c r="G10">
-        <v>125</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1144,22 +3179,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" t="s">
-        <v>136</v>
+        <v>680</v>
       </c>
       <c r="G11">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1167,22 +3199,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>136</v>
+        <v>684</v>
       </c>
       <c r="G12">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1190,22 +3219,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" t="s">
-        <v>135</v>
+        <v>685</v>
       </c>
       <c r="G13">
-        <v>125</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1213,22 +3239,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" t="s">
-        <v>137</v>
+        <v>686</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1236,22 +3259,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
+        <v>687</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1259,22 +3279,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" t="s">
-        <v>137</v>
+        <v>684</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1282,22 +3299,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>137</v>
+        <v>688</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1305,22 +3319,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>137</v>
+        <v>689</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1328,19 +3339,16 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
+        <v>690</v>
       </c>
       <c r="G19">
         <v>220</v>
@@ -1351,22 +3359,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G20">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1374,22 +3379,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
+        <v>685</v>
       </c>
       <c r="G21">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1397,19 +3399,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>133</v>
+        <v>691</v>
       </c>
       <c r="G22">
         <v>220</v>
@@ -1420,22 +3419,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>353</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" t="s">
-        <v>137</v>
+        <v>685</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1443,19 +3439,16 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
+        <v>692</v>
       </c>
       <c r="G24">
         <v>220</v>
@@ -1465,51 +3458,57 @@
       <c r="A25" t="s">
         <v>7</v>
       </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" t="s">
+        <v>673</v>
+      </c>
+      <c r="E25" t="s">
+        <v>693</v>
+      </c>
       <c r="G25">
-        <v>3170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G26">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
+        <v>694</v>
       </c>
       <c r="G27">
         <v>220</v>
@@ -1517,22 +3516,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>133</v>
+        <v>680</v>
       </c>
       <c r="G28">
         <v>110</v>
@@ -1540,22 +3536,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" t="s">
-        <v>133</v>
+        <v>695</v>
       </c>
       <c r="G29">
         <v>220</v>
@@ -1563,137 +3556,119 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
+        <v>690</v>
       </c>
       <c r="G30">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
+        <v>678</v>
       </c>
       <c r="G31">
-        <v>220</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>362</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G32">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" t="s">
-        <v>133</v>
+        <v>696</v>
       </c>
       <c r="G33">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>364</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
+        <v>697</v>
       </c>
       <c r="G34">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" t="s">
-        <v>133</v>
+        <v>694</v>
       </c>
       <c r="G35">
         <v>220</v>
@@ -1701,22 +3676,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>133</v>
+        <v>680</v>
       </c>
       <c r="G36">
         <v>110</v>
@@ -1724,22 +3696,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" t="s">
-        <v>133</v>
+        <v>698</v>
       </c>
       <c r="G37">
         <v>220</v>
@@ -1747,68 +3716,59 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G38">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>133</v>
+        <v>680</v>
       </c>
       <c r="G39">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" t="s">
-        <v>133</v>
+        <v>698</v>
       </c>
       <c r="G40">
         <v>220</v>
@@ -1816,344 +3776,299 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" t="s">
-        <v>133</v>
+        <v>699</v>
       </c>
       <c r="G41">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
+        <v>685</v>
       </c>
       <c r="G42">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G43">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" t="s">
-        <v>133</v>
+        <v>698</v>
       </c>
       <c r="G44">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" t="s">
-        <v>138</v>
+        <v>679</v>
       </c>
       <c r="G45">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" t="s">
-        <v>133</v>
+        <v>700</v>
       </c>
       <c r="G46">
-        <v>220</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" t="s">
-        <v>139</v>
+        <v>679</v>
       </c>
       <c r="G47">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
+        <v>378</v>
+      </c>
+      <c r="D48" t="s">
+        <v>673</v>
+      </c>
+      <c r="E48" t="s">
+        <v>701</v>
+      </c>
+      <c r="G48">
         <v>110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48">
-        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>379</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" t="s">
-        <v>133</v>
+        <v>694</v>
       </c>
       <c r="G49">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
+        <v>680</v>
       </c>
       <c r="G50">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>381</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>140</v>
+        <v>702</v>
       </c>
       <c r="G51">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" t="s">
-        <v>133</v>
+        <v>684</v>
       </c>
       <c r="G52">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" t="s">
-        <v>133</v>
+        <v>702</v>
       </c>
       <c r="G53">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" t="s">
-        <v>133</v>
+        <v>699</v>
       </c>
       <c r="G54">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>385</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" t="s">
-        <v>133</v>
+        <v>695</v>
       </c>
       <c r="G55">
         <v>220</v>
@@ -2161,22 +4076,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" t="s">
-        <v>133</v>
+        <v>683</v>
       </c>
       <c r="G56">
         <v>110</v>
@@ -2184,56 +4096,6136 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>387</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" t="s">
-        <v>133</v>
+        <v>703</v>
       </c>
       <c r="G57">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>388</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>674</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" t="s">
-        <v>141</v>
+        <v>684</v>
       </c>
       <c r="G58">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" t="s">
+        <v>673</v>
+      </c>
+      <c r="E59" t="s">
+        <v>699</v>
+      </c>
+      <c r="G59">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" t="s">
+        <v>673</v>
+      </c>
+      <c r="E60" t="s">
+        <v>698</v>
+      </c>
+      <c r="G60">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" t="s">
+        <v>674</v>
+      </c>
+      <c r="E61" t="s">
+        <v>684</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" t="s">
+        <v>673</v>
+      </c>
+      <c r="E62" t="s">
+        <v>694</v>
+      </c>
+      <c r="G62">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" t="s">
+        <v>673</v>
+      </c>
+      <c r="E63" t="s">
+        <v>678</v>
+      </c>
+      <c r="G63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" t="s">
+        <v>673</v>
+      </c>
+      <c r="E64" t="s">
+        <v>704</v>
+      </c>
+      <c r="G64">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" t="s">
+        <v>673</v>
+      </c>
+      <c r="E65" t="s">
+        <v>698</v>
+      </c>
+      <c r="G65">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>396</v>
+      </c>
+      <c r="D66" t="s">
+        <v>673</v>
+      </c>
+      <c r="E66" t="s">
+        <v>691</v>
+      </c>
+      <c r="G66">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>397</v>
+      </c>
+      <c r="D67" t="s">
+        <v>674</v>
+      </c>
+      <c r="E67" t="s">
+        <v>684</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" t="s">
+        <v>673</v>
+      </c>
+      <c r="E68" t="s">
+        <v>703</v>
+      </c>
+      <c r="G68">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" t="s">
+        <v>673</v>
+      </c>
+      <c r="E69" t="s">
+        <v>698</v>
+      </c>
+      <c r="G69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>400</v>
+      </c>
+      <c r="D70" t="s">
+        <v>673</v>
+      </c>
+      <c r="E70" t="s">
+        <v>705</v>
+      </c>
+      <c r="G70">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" t="s">
+        <v>673</v>
+      </c>
+      <c r="E71" t="s">
+        <v>698</v>
+      </c>
+      <c r="G71">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" t="s">
+        <v>673</v>
+      </c>
+      <c r="E72" t="s">
+        <v>706</v>
+      </c>
+      <c r="G72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" t="s">
+        <v>673</v>
+      </c>
+      <c r="E73" t="s">
+        <v>682</v>
+      </c>
+      <c r="G73">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74" t="s">
+        <v>674</v>
+      </c>
+      <c r="E74" t="s">
+        <v>684</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="G59">
-        <v>5570</v>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" t="s">
+        <v>674</v>
+      </c>
+      <c r="E75" t="s">
+        <v>684</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" t="s">
+        <v>673</v>
+      </c>
+      <c r="E76" t="s">
+        <v>702</v>
+      </c>
+      <c r="G76">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>407</v>
+      </c>
+      <c r="D77" t="s">
+        <v>673</v>
+      </c>
+      <c r="E77" t="s">
+        <v>702</v>
+      </c>
+      <c r="G77">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" t="s">
+        <v>673</v>
+      </c>
+      <c r="E78" t="s">
+        <v>707</v>
+      </c>
+      <c r="G78">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>409</v>
+      </c>
+      <c r="D79" t="s">
+        <v>673</v>
+      </c>
+      <c r="E79" t="s">
+        <v>708</v>
+      </c>
+      <c r="G79">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" t="s">
+        <v>673</v>
+      </c>
+      <c r="E80" t="s">
+        <v>702</v>
+      </c>
+      <c r="G80">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>411</v>
+      </c>
+      <c r="D81" t="s">
+        <v>673</v>
+      </c>
+      <c r="E81" t="s">
+        <v>694</v>
+      </c>
+      <c r="G81">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>412</v>
+      </c>
+      <c r="D82" t="s">
+        <v>673</v>
+      </c>
+      <c r="E82" t="s">
+        <v>707</v>
+      </c>
+      <c r="G82">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" t="s">
+        <v>673</v>
+      </c>
+      <c r="E83" t="s">
+        <v>707</v>
+      </c>
+      <c r="G83">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>414</v>
+      </c>
+      <c r="D84" t="s">
+        <v>674</v>
+      </c>
+      <c r="E84" t="s">
+        <v>684</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" t="s">
+        <v>415</v>
+      </c>
+      <c r="D85" t="s">
+        <v>673</v>
+      </c>
+      <c r="E85" t="s">
+        <v>709</v>
+      </c>
+      <c r="G85">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
+        <v>416</v>
+      </c>
+      <c r="D86" t="s">
+        <v>673</v>
+      </c>
+      <c r="E86" t="s">
+        <v>710</v>
+      </c>
+      <c r="G86">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>417</v>
+      </c>
+      <c r="D87" t="s">
+        <v>674</v>
+      </c>
+      <c r="E87" t="s">
+        <v>684</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88" t="s">
+        <v>673</v>
+      </c>
+      <c r="E88" t="s">
+        <v>694</v>
+      </c>
+      <c r="G88">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>419</v>
+      </c>
+      <c r="D89" t="s">
+        <v>673</v>
+      </c>
+      <c r="E89" t="s">
+        <v>695</v>
+      </c>
+      <c r="G89">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>420</v>
+      </c>
+      <c r="D90" t="s">
+        <v>673</v>
+      </c>
+      <c r="E90" t="s">
+        <v>681</v>
+      </c>
+      <c r="G90">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" t="s">
+        <v>421</v>
+      </c>
+      <c r="D91" t="s">
+        <v>673</v>
+      </c>
+      <c r="E91" t="s">
+        <v>691</v>
+      </c>
+      <c r="G91">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" t="s">
+        <v>422</v>
+      </c>
+      <c r="D92" t="s">
+        <v>673</v>
+      </c>
+      <c r="E92" t="s">
+        <v>681</v>
+      </c>
+      <c r="G92">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>423</v>
+      </c>
+      <c r="D93" t="s">
+        <v>674</v>
+      </c>
+      <c r="E93" t="s">
+        <v>684</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" t="s">
+        <v>673</v>
+      </c>
+      <c r="E94" t="s">
+        <v>682</v>
+      </c>
+      <c r="G94">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D95" t="s">
+        <v>673</v>
+      </c>
+      <c r="E95" t="s">
+        <v>711</v>
+      </c>
+      <c r="G95">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" t="s">
+        <v>426</v>
+      </c>
+      <c r="D96" t="s">
+        <v>673</v>
+      </c>
+      <c r="E96" t="s">
+        <v>698</v>
+      </c>
+      <c r="G96">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>427</v>
+      </c>
+      <c r="D97" t="s">
+        <v>673</v>
+      </c>
+      <c r="E97" t="s">
+        <v>682</v>
+      </c>
+      <c r="G97">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" t="s">
+        <v>428</v>
+      </c>
+      <c r="D98" t="s">
+        <v>673</v>
+      </c>
+      <c r="E98" t="s">
+        <v>681</v>
+      </c>
+      <c r="G98">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>429</v>
+      </c>
+      <c r="D99" t="s">
+        <v>673</v>
+      </c>
+      <c r="E99" t="s">
+        <v>695</v>
+      </c>
+      <c r="G99">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" t="s">
+        <v>430</v>
+      </c>
+      <c r="D100" t="s">
+        <v>673</v>
+      </c>
+      <c r="E100" t="s">
+        <v>701</v>
+      </c>
+      <c r="G100">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" t="s">
+        <v>431</v>
+      </c>
+      <c r="D101" t="s">
+        <v>673</v>
+      </c>
+      <c r="E101" t="s">
+        <v>693</v>
+      </c>
+      <c r="G101">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>432</v>
+      </c>
+      <c r="D102" t="s">
+        <v>674</v>
+      </c>
+      <c r="E102" t="s">
+        <v>684</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" t="s">
+        <v>433</v>
+      </c>
+      <c r="D103" t="s">
+        <v>673</v>
+      </c>
+      <c r="E103" t="s">
+        <v>682</v>
+      </c>
+      <c r="G103">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" t="s">
+        <v>434</v>
+      </c>
+      <c r="D104" t="s">
+        <v>673</v>
+      </c>
+      <c r="E104" t="s">
+        <v>694</v>
+      </c>
+      <c r="G104">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="s">
+        <v>435</v>
+      </c>
+      <c r="D105" t="s">
+        <v>674</v>
+      </c>
+      <c r="E105" t="s">
+        <v>684</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D106" t="s">
+        <v>673</v>
+      </c>
+      <c r="E106" t="s">
+        <v>682</v>
+      </c>
+      <c r="G106">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" t="s">
+        <v>437</v>
+      </c>
+      <c r="D107" t="s">
+        <v>673</v>
+      </c>
+      <c r="E107" t="s">
+        <v>712</v>
+      </c>
+      <c r="G107">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" t="s">
+        <v>438</v>
+      </c>
+      <c r="D108" t="s">
+        <v>673</v>
+      </c>
+      <c r="E108" t="s">
+        <v>713</v>
+      </c>
+      <c r="G108">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="s">
+        <v>439</v>
+      </c>
+      <c r="D109" t="s">
+        <v>673</v>
+      </c>
+      <c r="E109" t="s">
+        <v>703</v>
+      </c>
+      <c r="G109">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" t="s">
+        <v>440</v>
+      </c>
+      <c r="D110" t="s">
+        <v>673</v>
+      </c>
+      <c r="E110" t="s">
+        <v>714</v>
+      </c>
+      <c r="G110">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>673</v>
+      </c>
+      <c r="E111" t="s">
+        <v>715</v>
+      </c>
+      <c r="G111">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" t="s">
+        <v>442</v>
+      </c>
+      <c r="D112" t="s">
+        <v>673</v>
+      </c>
+      <c r="E112" t="s">
+        <v>701</v>
+      </c>
+      <c r="G112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" t="s">
+        <v>443</v>
+      </c>
+      <c r="D113" t="s">
+        <v>673</v>
+      </c>
+      <c r="E113" t="s">
+        <v>685</v>
+      </c>
+      <c r="G113">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="s">
+        <v>444</v>
+      </c>
+      <c r="D114" t="s">
+        <v>673</v>
+      </c>
+      <c r="E114" t="s">
+        <v>716</v>
+      </c>
+      <c r="G114">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" t="s">
+        <v>445</v>
+      </c>
+      <c r="D115" t="s">
+        <v>673</v>
+      </c>
+      <c r="E115" t="s">
+        <v>699</v>
+      </c>
+      <c r="G115">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" t="s">
+        <v>446</v>
+      </c>
+      <c r="D116" t="s">
+        <v>674</v>
+      </c>
+      <c r="E116" t="s">
+        <v>684</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" t="s">
+        <v>673</v>
+      </c>
+      <c r="E117" t="s">
+        <v>682</v>
+      </c>
+      <c r="G117">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D118" t="s">
+        <v>674</v>
+      </c>
+      <c r="E118" t="s">
+        <v>684</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
+        <v>449</v>
+      </c>
+      <c r="D119" t="s">
+        <v>673</v>
+      </c>
+      <c r="E119" t="s">
+        <v>703</v>
+      </c>
+      <c r="G119">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" t="s">
+        <v>673</v>
+      </c>
+      <c r="E120" t="s">
+        <v>705</v>
+      </c>
+      <c r="G120">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" t="s">
+        <v>451</v>
+      </c>
+      <c r="D121" t="s">
+        <v>673</v>
+      </c>
+      <c r="E121" t="s">
+        <v>717</v>
+      </c>
+      <c r="G121">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" t="s">
+        <v>452</v>
+      </c>
+      <c r="D122" t="s">
+        <v>673</v>
+      </c>
+      <c r="E122" t="s">
+        <v>683</v>
+      </c>
+      <c r="G122">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>453</v>
+      </c>
+      <c r="D123" t="s">
+        <v>673</v>
+      </c>
+      <c r="E123" t="s">
+        <v>682</v>
+      </c>
+      <c r="G123">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" t="s">
+        <v>454</v>
+      </c>
+      <c r="D124" t="s">
+        <v>674</v>
+      </c>
+      <c r="E124" t="s">
+        <v>684</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="s">
+        <v>455</v>
+      </c>
+      <c r="D125" t="s">
+        <v>673</v>
+      </c>
+      <c r="E125" t="s">
+        <v>694</v>
+      </c>
+      <c r="G125">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" t="s">
+        <v>456</v>
+      </c>
+      <c r="D126" t="s">
+        <v>673</v>
+      </c>
+      <c r="E126" t="s">
+        <v>717</v>
+      </c>
+      <c r="G126">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" t="s">
+        <v>457</v>
+      </c>
+      <c r="D127" t="s">
+        <v>673</v>
+      </c>
+      <c r="E127" t="s">
+        <v>692</v>
+      </c>
+      <c r="G127">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>458</v>
+      </c>
+      <c r="D128" t="s">
+        <v>673</v>
+      </c>
+      <c r="E128" t="s">
+        <v>703</v>
+      </c>
+      <c r="G128">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>142</v>
+      </c>
+      <c r="C129" t="s">
+        <v>459</v>
+      </c>
+      <c r="D129" t="s">
+        <v>674</v>
+      </c>
+      <c r="E129" t="s">
+        <v>684</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" t="s">
+        <v>460</v>
+      </c>
+      <c r="D130" t="s">
+        <v>673</v>
+      </c>
+      <c r="E130" t="s">
+        <v>706</v>
+      </c>
+      <c r="G130">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>461</v>
+      </c>
+      <c r="D131" t="s">
+        <v>673</v>
+      </c>
+      <c r="E131" t="s">
+        <v>702</v>
+      </c>
+      <c r="G131">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" t="s">
+        <v>462</v>
+      </c>
+      <c r="D132" t="s">
+        <v>673</v>
+      </c>
+      <c r="E132" t="s">
+        <v>702</v>
+      </c>
+      <c r="G132">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" t="s">
+        <v>463</v>
+      </c>
+      <c r="D133" t="s">
+        <v>674</v>
+      </c>
+      <c r="E133" t="s">
+        <v>684</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" t="s">
+        <v>464</v>
+      </c>
+      <c r="D134" t="s">
+        <v>673</v>
+      </c>
+      <c r="E134" t="s">
+        <v>692</v>
+      </c>
+      <c r="G134">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" t="s">
+        <v>465</v>
+      </c>
+      <c r="D135" t="s">
+        <v>673</v>
+      </c>
+      <c r="E135" t="s">
+        <v>718</v>
+      </c>
+      <c r="G135">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" t="s">
+        <v>466</v>
+      </c>
+      <c r="D136" t="s">
+        <v>673</v>
+      </c>
+      <c r="E136" t="s">
+        <v>703</v>
+      </c>
+      <c r="G136">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" t="s">
+        <v>467</v>
+      </c>
+      <c r="D137" t="s">
+        <v>673</v>
+      </c>
+      <c r="E137" t="s">
+        <v>719</v>
+      </c>
+      <c r="G137">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" t="s">
+        <v>468</v>
+      </c>
+      <c r="D138" t="s">
+        <v>674</v>
+      </c>
+      <c r="E138" t="s">
+        <v>684</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" t="s">
+        <v>673</v>
+      </c>
+      <c r="E139" t="s">
+        <v>693</v>
+      </c>
+      <c r="G139">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" t="s">
+        <v>470</v>
+      </c>
+      <c r="D140" t="s">
+        <v>673</v>
+      </c>
+      <c r="E140" t="s">
+        <v>705</v>
+      </c>
+      <c r="G140">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C141" t="s">
+        <v>471</v>
+      </c>
+      <c r="D141" t="s">
+        <v>673</v>
+      </c>
+      <c r="E141" t="s">
+        <v>720</v>
+      </c>
+      <c r="G141">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" t="s">
+        <v>472</v>
+      </c>
+      <c r="D142" t="s">
+        <v>673</v>
+      </c>
+      <c r="E142" t="s">
+        <v>721</v>
+      </c>
+      <c r="G142">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" t="s">
+        <v>473</v>
+      </c>
+      <c r="D143" t="s">
+        <v>673</v>
+      </c>
+      <c r="E143" t="s">
+        <v>722</v>
+      </c>
+      <c r="G143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" t="s">
+        <v>474</v>
+      </c>
+      <c r="D144" t="s">
+        <v>673</v>
+      </c>
+      <c r="E144" t="s">
+        <v>723</v>
+      </c>
+      <c r="G144">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" t="s">
+        <v>475</v>
+      </c>
+      <c r="D145" t="s">
+        <v>673</v>
+      </c>
+      <c r="E145" t="s">
+        <v>702</v>
+      </c>
+      <c r="G145">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" t="s">
+        <v>476</v>
+      </c>
+      <c r="D146" t="s">
+        <v>673</v>
+      </c>
+      <c r="E146" t="s">
+        <v>702</v>
+      </c>
+      <c r="G146">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" t="s">
+        <v>477</v>
+      </c>
+      <c r="D147" t="s">
+        <v>673</v>
+      </c>
+      <c r="E147" t="s">
+        <v>692</v>
+      </c>
+      <c r="G147">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>161</v>
+      </c>
+      <c r="C148" t="s">
+        <v>478</v>
+      </c>
+      <c r="D148" t="s">
+        <v>673</v>
+      </c>
+      <c r="E148" t="s">
+        <v>705</v>
+      </c>
+      <c r="G148">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" t="s">
+        <v>479</v>
+      </c>
+      <c r="D149" t="s">
+        <v>673</v>
+      </c>
+      <c r="E149" t="s">
+        <v>702</v>
+      </c>
+      <c r="G149">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" t="s">
+        <v>480</v>
+      </c>
+      <c r="D150" t="s">
+        <v>673</v>
+      </c>
+      <c r="E150" t="s">
+        <v>724</v>
+      </c>
+      <c r="G150">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" t="s">
+        <v>481</v>
+      </c>
+      <c r="D151" t="s">
+        <v>673</v>
+      </c>
+      <c r="E151" t="s">
+        <v>710</v>
+      </c>
+      <c r="G151">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" t="s">
+        <v>482</v>
+      </c>
+      <c r="D152" t="s">
+        <v>673</v>
+      </c>
+      <c r="E152" t="s">
+        <v>725</v>
+      </c>
+      <c r="G152">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" t="s">
+        <v>483</v>
+      </c>
+      <c r="D153" t="s">
+        <v>673</v>
+      </c>
+      <c r="E153" t="s">
+        <v>693</v>
+      </c>
+      <c r="G153">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154" t="s">
+        <v>484</v>
+      </c>
+      <c r="D154" t="s">
+        <v>674</v>
+      </c>
+      <c r="E154" t="s">
+        <v>684</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" t="s">
+        <v>485</v>
+      </c>
+      <c r="D155" t="s">
+        <v>674</v>
+      </c>
+      <c r="E155" t="s">
+        <v>684</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" t="s">
+        <v>486</v>
+      </c>
+      <c r="D156" t="s">
+        <v>673</v>
+      </c>
+      <c r="E156" t="s">
+        <v>707</v>
+      </c>
+      <c r="G156">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" t="s">
+        <v>487</v>
+      </c>
+      <c r="D157" t="s">
+        <v>673</v>
+      </c>
+      <c r="E157" t="s">
+        <v>692</v>
+      </c>
+      <c r="G157">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" t="s">
+        <v>488</v>
+      </c>
+      <c r="D158" t="s">
+        <v>673</v>
+      </c>
+      <c r="E158" t="s">
+        <v>683</v>
+      </c>
+      <c r="G158">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" t="s">
+        <v>489</v>
+      </c>
+      <c r="D159" t="s">
+        <v>673</v>
+      </c>
+      <c r="E159" t="s">
+        <v>692</v>
+      </c>
+      <c r="G159">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" t="s">
+        <v>490</v>
+      </c>
+      <c r="D160" t="s">
+        <v>673</v>
+      </c>
+      <c r="E160" t="s">
+        <v>699</v>
+      </c>
+      <c r="G160">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161" t="s">
+        <v>674</v>
+      </c>
+      <c r="E161" t="s">
+        <v>684</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" t="s">
+        <v>492</v>
+      </c>
+      <c r="D162" t="s">
+        <v>673</v>
+      </c>
+      <c r="E162" t="s">
+        <v>694</v>
+      </c>
+      <c r="G162">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" t="s">
+        <v>493</v>
+      </c>
+      <c r="D163" t="s">
+        <v>673</v>
+      </c>
+      <c r="E163" t="s">
+        <v>702</v>
+      </c>
+      <c r="G163">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" t="s">
+        <v>494</v>
+      </c>
+      <c r="D164" t="s">
+        <v>673</v>
+      </c>
+      <c r="E164" t="s">
+        <v>692</v>
+      </c>
+      <c r="G164">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>178</v>
+      </c>
+      <c r="C165" t="s">
+        <v>495</v>
+      </c>
+      <c r="D165" t="s">
+        <v>673</v>
+      </c>
+      <c r="E165" t="s">
+        <v>726</v>
+      </c>
+      <c r="G165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" t="s">
+        <v>496</v>
+      </c>
+      <c r="D166" t="s">
+        <v>673</v>
+      </c>
+      <c r="E166" t="s">
+        <v>727</v>
+      </c>
+      <c r="G166">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" t="s">
+        <v>497</v>
+      </c>
+      <c r="D167" t="s">
+        <v>673</v>
+      </c>
+      <c r="E167" t="s">
+        <v>728</v>
+      </c>
+      <c r="G167">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" t="s">
+        <v>498</v>
+      </c>
+      <c r="D168" t="s">
+        <v>674</v>
+      </c>
+      <c r="E168" t="s">
+        <v>684</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" t="s">
+        <v>499</v>
+      </c>
+      <c r="D169" t="s">
+        <v>673</v>
+      </c>
+      <c r="E169" t="s">
+        <v>703</v>
+      </c>
+      <c r="G169">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" t="s">
+        <v>500</v>
+      </c>
+      <c r="D170" t="s">
+        <v>673</v>
+      </c>
+      <c r="E170" t="s">
+        <v>693</v>
+      </c>
+      <c r="G170">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" t="s">
+        <v>501</v>
+      </c>
+      <c r="D171" t="s">
+        <v>673</v>
+      </c>
+      <c r="E171" t="s">
+        <v>703</v>
+      </c>
+      <c r="G171">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" t="s">
+        <v>502</v>
+      </c>
+      <c r="D172" t="s">
+        <v>673</v>
+      </c>
+      <c r="E172" t="s">
+        <v>703</v>
+      </c>
+      <c r="G172">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" t="s">
+        <v>503</v>
+      </c>
+      <c r="D173" t="s">
+        <v>673</v>
+      </c>
+      <c r="E173" t="s">
+        <v>699</v>
+      </c>
+      <c r="G173">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" t="s">
+        <v>504</v>
+      </c>
+      <c r="D174" t="s">
+        <v>673</v>
+      </c>
+      <c r="E174" t="s">
+        <v>707</v>
+      </c>
+      <c r="G174">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" t="s">
+        <v>505</v>
+      </c>
+      <c r="D175" t="s">
+        <v>673</v>
+      </c>
+      <c r="E175" t="s">
+        <v>728</v>
+      </c>
+      <c r="G175">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" t="s">
+        <v>506</v>
+      </c>
+      <c r="D176" t="s">
+        <v>674</v>
+      </c>
+      <c r="E176" t="s">
+        <v>684</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>190</v>
+      </c>
+      <c r="C177" t="s">
+        <v>507</v>
+      </c>
+      <c r="D177" t="s">
+        <v>673</v>
+      </c>
+      <c r="E177" t="s">
+        <v>719</v>
+      </c>
+      <c r="G177">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" t="s">
+        <v>508</v>
+      </c>
+      <c r="D178" t="s">
+        <v>673</v>
+      </c>
+      <c r="E178" t="s">
+        <v>707</v>
+      </c>
+      <c r="G178">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" t="s">
+        <v>509</v>
+      </c>
+      <c r="D179" t="s">
+        <v>673</v>
+      </c>
+      <c r="E179" t="s">
+        <v>699</v>
+      </c>
+      <c r="G179">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>193</v>
+      </c>
+      <c r="C180" t="s">
+        <v>510</v>
+      </c>
+      <c r="D180" t="s">
+        <v>673</v>
+      </c>
+      <c r="E180" t="s">
+        <v>729</v>
+      </c>
+      <c r="G180">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>194</v>
+      </c>
+      <c r="C181" t="s">
+        <v>511</v>
+      </c>
+      <c r="D181" t="s">
+        <v>675</v>
+      </c>
+      <c r="E181" t="s">
+        <v>730</v>
+      </c>
+      <c r="F181" t="s">
+        <v>754</v>
+      </c>
+      <c r="G181">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>195</v>
+      </c>
+      <c r="C182" t="s">
+        <v>512</v>
+      </c>
+      <c r="D182" t="s">
+        <v>675</v>
+      </c>
+      <c r="E182" t="s">
+        <v>731</v>
+      </c>
+      <c r="F182" t="s">
+        <v>755</v>
+      </c>
+      <c r="G182">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" t="s">
+        <v>513</v>
+      </c>
+      <c r="D183" t="s">
+        <v>675</v>
+      </c>
+      <c r="E183" t="s">
+        <v>732</v>
+      </c>
+      <c r="F183" t="s">
+        <v>756</v>
+      </c>
+      <c r="G183">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>197</v>
+      </c>
+      <c r="C184" t="s">
+        <v>514</v>
+      </c>
+      <c r="D184" t="s">
+        <v>675</v>
+      </c>
+      <c r="E184" t="s">
+        <v>733</v>
+      </c>
+      <c r="F184" t="s">
+        <v>757</v>
+      </c>
+      <c r="G184">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
+        <v>198</v>
+      </c>
+      <c r="C185" t="s">
+        <v>515</v>
+      </c>
+      <c r="D185" t="s">
+        <v>675</v>
+      </c>
+      <c r="E185" t="s">
+        <v>734</v>
+      </c>
+      <c r="F185" t="s">
+        <v>758</v>
+      </c>
+      <c r="G185">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186" t="s">
+        <v>516</v>
+      </c>
+      <c r="D186" t="s">
+        <v>675</v>
+      </c>
+      <c r="E186" t="s">
+        <v>730</v>
+      </c>
+      <c r="F186" t="s">
+        <v>754</v>
+      </c>
+      <c r="G186">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>200</v>
+      </c>
+      <c r="C187" t="s">
+        <v>517</v>
+      </c>
+      <c r="D187" t="s">
+        <v>675</v>
+      </c>
+      <c r="E187" t="s">
+        <v>731</v>
+      </c>
+      <c r="F187" t="s">
+        <v>755</v>
+      </c>
+      <c r="G187">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>201</v>
+      </c>
+      <c r="C188" t="s">
+        <v>518</v>
+      </c>
+      <c r="D188" t="s">
+        <v>675</v>
+      </c>
+      <c r="E188" t="s">
+        <v>735</v>
+      </c>
+      <c r="F188" t="s">
+        <v>759</v>
+      </c>
+      <c r="G188">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>202</v>
+      </c>
+      <c r="C189" t="s">
+        <v>519</v>
+      </c>
+      <c r="D189" t="s">
+        <v>675</v>
+      </c>
+      <c r="E189" t="s">
+        <v>736</v>
+      </c>
+      <c r="F189" t="s">
+        <v>760</v>
+      </c>
+      <c r="G189">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>203</v>
+      </c>
+      <c r="C190" t="s">
+        <v>520</v>
+      </c>
+      <c r="D190" t="s">
+        <v>675</v>
+      </c>
+      <c r="E190" t="s">
+        <v>737</v>
+      </c>
+      <c r="F190" t="s">
+        <v>761</v>
+      </c>
+      <c r="G190">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>204</v>
+      </c>
+      <c r="C191" t="s">
+        <v>521</v>
+      </c>
+      <c r="D191" t="s">
+        <v>675</v>
+      </c>
+      <c r="E191" t="s">
+        <v>737</v>
+      </c>
+      <c r="F191" t="s">
+        <v>761</v>
+      </c>
+      <c r="G191">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>205</v>
+      </c>
+      <c r="C192" t="s">
+        <v>522</v>
+      </c>
+      <c r="D192" t="s">
+        <v>675</v>
+      </c>
+      <c r="E192" t="s">
+        <v>737</v>
+      </c>
+      <c r="F192" t="s">
+        <v>761</v>
+      </c>
+      <c r="G192">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" t="s">
+        <v>523</v>
+      </c>
+      <c r="D193" t="s">
+        <v>675</v>
+      </c>
+      <c r="E193" t="s">
+        <v>737</v>
+      </c>
+      <c r="F193" t="s">
+        <v>761</v>
+      </c>
+      <c r="G193">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>207</v>
+      </c>
+      <c r="C194" t="s">
+        <v>524</v>
+      </c>
+      <c r="D194" t="s">
+        <v>675</v>
+      </c>
+      <c r="E194" t="s">
+        <v>737</v>
+      </c>
+      <c r="F194" t="s">
+        <v>761</v>
+      </c>
+      <c r="G194">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C195" t="s">
+        <v>525</v>
+      </c>
+      <c r="D195" t="s">
+        <v>675</v>
+      </c>
+      <c r="E195" t="s">
+        <v>737</v>
+      </c>
+      <c r="F195" t="s">
+        <v>761</v>
+      </c>
+      <c r="G195">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" t="s">
+        <v>526</v>
+      </c>
+      <c r="D196" t="s">
+        <v>675</v>
+      </c>
+      <c r="E196" t="s">
+        <v>737</v>
+      </c>
+      <c r="F196" t="s">
+        <v>761</v>
+      </c>
+      <c r="G196">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>210</v>
+      </c>
+      <c r="C197" t="s">
+        <v>527</v>
+      </c>
+      <c r="D197" t="s">
+        <v>675</v>
+      </c>
+      <c r="E197" t="s">
+        <v>737</v>
+      </c>
+      <c r="F197" t="s">
+        <v>761</v>
+      </c>
+      <c r="G197">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>211</v>
+      </c>
+      <c r="C198" t="s">
+        <v>528</v>
+      </c>
+      <c r="D198" t="s">
+        <v>675</v>
+      </c>
+      <c r="E198" t="s">
+        <v>737</v>
+      </c>
+      <c r="F198" t="s">
+        <v>761</v>
+      </c>
+      <c r="G198">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>212</v>
+      </c>
+      <c r="C199" t="s">
+        <v>529</v>
+      </c>
+      <c r="D199" t="s">
+        <v>675</v>
+      </c>
+      <c r="E199" t="s">
+        <v>737</v>
+      </c>
+      <c r="F199" t="s">
+        <v>761</v>
+      </c>
+      <c r="G199">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>213</v>
+      </c>
+      <c r="C200" t="s">
+        <v>530</v>
+      </c>
+      <c r="D200" t="s">
+        <v>675</v>
+      </c>
+      <c r="E200" t="s">
+        <v>731</v>
+      </c>
+      <c r="F200" t="s">
+        <v>755</v>
+      </c>
+      <c r="G200">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>214</v>
+      </c>
+      <c r="C201" t="s">
+        <v>531</v>
+      </c>
+      <c r="D201" t="s">
+        <v>675</v>
+      </c>
+      <c r="E201" t="s">
+        <v>737</v>
+      </c>
+      <c r="F201" t="s">
+        <v>761</v>
+      </c>
+      <c r="G201">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" t="s">
+        <v>532</v>
+      </c>
+      <c r="D202" t="s">
+        <v>675</v>
+      </c>
+      <c r="E202" t="s">
+        <v>730</v>
+      </c>
+      <c r="F202" t="s">
+        <v>754</v>
+      </c>
+      <c r="G202">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203" t="s">
+        <v>533</v>
+      </c>
+      <c r="D203" t="s">
+        <v>675</v>
+      </c>
+      <c r="E203" t="s">
+        <v>732</v>
+      </c>
+      <c r="F203" t="s">
+        <v>756</v>
+      </c>
+      <c r="G203">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>217</v>
+      </c>
+      <c r="C204" t="s">
+        <v>534</v>
+      </c>
+      <c r="D204" t="s">
+        <v>675</v>
+      </c>
+      <c r="E204" t="s">
+        <v>731</v>
+      </c>
+      <c r="F204" t="s">
+        <v>755</v>
+      </c>
+      <c r="G204">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>218</v>
+      </c>
+      <c r="C205" t="s">
+        <v>535</v>
+      </c>
+      <c r="D205" t="s">
+        <v>675</v>
+      </c>
+      <c r="E205" t="s">
+        <v>730</v>
+      </c>
+      <c r="F205" t="s">
+        <v>754</v>
+      </c>
+      <c r="G205">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>219</v>
+      </c>
+      <c r="C206" t="s">
+        <v>536</v>
+      </c>
+      <c r="D206" t="s">
+        <v>675</v>
+      </c>
+      <c r="E206" t="s">
+        <v>738</v>
+      </c>
+      <c r="F206" t="s">
+        <v>762</v>
+      </c>
+      <c r="G206">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>220</v>
+      </c>
+      <c r="C207" t="s">
+        <v>537</v>
+      </c>
+      <c r="D207" t="s">
+        <v>675</v>
+      </c>
+      <c r="E207" t="s">
+        <v>739</v>
+      </c>
+      <c r="F207" t="s">
+        <v>763</v>
+      </c>
+      <c r="G207">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>221</v>
+      </c>
+      <c r="C208" t="s">
+        <v>538</v>
+      </c>
+      <c r="D208" t="s">
+        <v>675</v>
+      </c>
+      <c r="E208" t="s">
+        <v>739</v>
+      </c>
+      <c r="F208" t="s">
+        <v>763</v>
+      </c>
+      <c r="G208">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>222</v>
+      </c>
+      <c r="C209" t="s">
+        <v>539</v>
+      </c>
+      <c r="D209" t="s">
+        <v>675</v>
+      </c>
+      <c r="E209" t="s">
+        <v>738</v>
+      </c>
+      <c r="F209" t="s">
+        <v>762</v>
+      </c>
+      <c r="G209">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>223</v>
+      </c>
+      <c r="C210" t="s">
+        <v>540</v>
+      </c>
+      <c r="D210" t="s">
+        <v>675</v>
+      </c>
+      <c r="E210" t="s">
+        <v>740</v>
+      </c>
+      <c r="F210" t="s">
+        <v>764</v>
+      </c>
+      <c r="G210">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" t="s">
+        <v>541</v>
+      </c>
+      <c r="D211" t="s">
+        <v>675</v>
+      </c>
+      <c r="E211" t="s">
+        <v>737</v>
+      </c>
+      <c r="F211" t="s">
+        <v>761</v>
+      </c>
+      <c r="G211">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>225</v>
+      </c>
+      <c r="C212" t="s">
+        <v>542</v>
+      </c>
+      <c r="D212" t="s">
+        <v>676</v>
+      </c>
+      <c r="E212" t="s">
+        <v>741</v>
+      </c>
+      <c r="F212" t="s">
+        <v>765</v>
+      </c>
+      <c r="G212">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>226</v>
+      </c>
+      <c r="C213" t="s">
+        <v>543</v>
+      </c>
+      <c r="D213" t="s">
+        <v>676</v>
+      </c>
+      <c r="E213" t="s">
+        <v>737</v>
+      </c>
+      <c r="F213" t="s">
+        <v>761</v>
+      </c>
+      <c r="G213">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>227</v>
+      </c>
+      <c r="C214" t="s">
+        <v>544</v>
+      </c>
+      <c r="D214" t="s">
+        <v>676</v>
+      </c>
+      <c r="E214" t="s">
+        <v>737</v>
+      </c>
+      <c r="F214" t="s">
+        <v>761</v>
+      </c>
+      <c r="G214">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>228</v>
+      </c>
+      <c r="C215" t="s">
+        <v>545</v>
+      </c>
+      <c r="D215" t="s">
+        <v>676</v>
+      </c>
+      <c r="E215" t="s">
+        <v>741</v>
+      </c>
+      <c r="F215" t="s">
+        <v>765</v>
+      </c>
+      <c r="G215">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>229</v>
+      </c>
+      <c r="C216" t="s">
+        <v>546</v>
+      </c>
+      <c r="D216" t="s">
+        <v>676</v>
+      </c>
+      <c r="E216" t="s">
+        <v>737</v>
+      </c>
+      <c r="F216" t="s">
+        <v>761</v>
+      </c>
+      <c r="G216">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
+        <v>230</v>
+      </c>
+      <c r="C217" t="s">
+        <v>547</v>
+      </c>
+      <c r="D217" t="s">
+        <v>676</v>
+      </c>
+      <c r="E217" t="s">
+        <v>741</v>
+      </c>
+      <c r="F217" t="s">
+        <v>765</v>
+      </c>
+      <c r="G217">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
+        <v>231</v>
+      </c>
+      <c r="C218" t="s">
+        <v>548</v>
+      </c>
+      <c r="D218" t="s">
+        <v>676</v>
+      </c>
+      <c r="E218" t="s">
+        <v>737</v>
+      </c>
+      <c r="F218" t="s">
+        <v>761</v>
+      </c>
+      <c r="G218">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>232</v>
+      </c>
+      <c r="C219" t="s">
+        <v>549</v>
+      </c>
+      <c r="D219" t="s">
+        <v>676</v>
+      </c>
+      <c r="E219" t="s">
+        <v>742</v>
+      </c>
+      <c r="F219" t="s">
+        <v>766</v>
+      </c>
+      <c r="G219">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>233</v>
+      </c>
+      <c r="C220" t="s">
+        <v>550</v>
+      </c>
+      <c r="D220" t="s">
+        <v>676</v>
+      </c>
+      <c r="E220" t="s">
+        <v>743</v>
+      </c>
+      <c r="F220" t="s">
+        <v>767</v>
+      </c>
+      <c r="G220">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" t="s">
+        <v>551</v>
+      </c>
+      <c r="D221" t="s">
+        <v>676</v>
+      </c>
+      <c r="E221" t="s">
+        <v>744</v>
+      </c>
+      <c r="F221" t="s">
+        <v>768</v>
+      </c>
+      <c r="G221">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>235</v>
+      </c>
+      <c r="C222" t="s">
+        <v>552</v>
+      </c>
+      <c r="D222" t="s">
+        <v>676</v>
+      </c>
+      <c r="E222" t="s">
+        <v>744</v>
+      </c>
+      <c r="F222" t="s">
+        <v>768</v>
+      </c>
+      <c r="G222">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>236</v>
+      </c>
+      <c r="C223" t="s">
+        <v>553</v>
+      </c>
+      <c r="D223" t="s">
+        <v>676</v>
+      </c>
+      <c r="E223" t="s">
+        <v>743</v>
+      </c>
+      <c r="F223" t="s">
+        <v>767</v>
+      </c>
+      <c r="G223">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" t="s">
+        <v>237</v>
+      </c>
+      <c r="C224" t="s">
+        <v>554</v>
+      </c>
+      <c r="D224" t="s">
+        <v>676</v>
+      </c>
+      <c r="E224" t="s">
+        <v>745</v>
+      </c>
+      <c r="F224" t="s">
+        <v>769</v>
+      </c>
+      <c r="G224">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>238</v>
+      </c>
+      <c r="C225" t="s">
+        <v>555</v>
+      </c>
+      <c r="D225" t="s">
+        <v>676</v>
+      </c>
+      <c r="E225" t="s">
+        <v>745</v>
+      </c>
+      <c r="F225" t="s">
+        <v>769</v>
+      </c>
+      <c r="G225">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>239</v>
+      </c>
+      <c r="C226" t="s">
+        <v>556</v>
+      </c>
+      <c r="D226" t="s">
+        <v>676</v>
+      </c>
+      <c r="E226" t="s">
+        <v>745</v>
+      </c>
+      <c r="F226" t="s">
+        <v>769</v>
+      </c>
+      <c r="G226">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>240</v>
+      </c>
+      <c r="C227" t="s">
+        <v>557</v>
+      </c>
+      <c r="D227" t="s">
+        <v>676</v>
+      </c>
+      <c r="E227" t="s">
+        <v>745</v>
+      </c>
+      <c r="F227" t="s">
+        <v>769</v>
+      </c>
+      <c r="G227">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>241</v>
+      </c>
+      <c r="C228" t="s">
+        <v>558</v>
+      </c>
+      <c r="D228" t="s">
+        <v>676</v>
+      </c>
+      <c r="E228" t="s">
+        <v>745</v>
+      </c>
+      <c r="F228" t="s">
+        <v>769</v>
+      </c>
+      <c r="G228">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>242</v>
+      </c>
+      <c r="C229" t="s">
+        <v>559</v>
+      </c>
+      <c r="D229" t="s">
+        <v>676</v>
+      </c>
+      <c r="E229" t="s">
+        <v>737</v>
+      </c>
+      <c r="F229" t="s">
+        <v>761</v>
+      </c>
+      <c r="G229">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
+        <v>243</v>
+      </c>
+      <c r="C230" t="s">
+        <v>560</v>
+      </c>
+      <c r="D230" t="s">
+        <v>676</v>
+      </c>
+      <c r="E230" t="s">
+        <v>737</v>
+      </c>
+      <c r="F230" t="s">
+        <v>761</v>
+      </c>
+      <c r="G230">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>244</v>
+      </c>
+      <c r="C231" t="s">
+        <v>561</v>
+      </c>
+      <c r="D231" t="s">
+        <v>676</v>
+      </c>
+      <c r="E231" t="s">
+        <v>737</v>
+      </c>
+      <c r="F231" t="s">
+        <v>761</v>
+      </c>
+      <c r="G231">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>245</v>
+      </c>
+      <c r="C232" t="s">
+        <v>562</v>
+      </c>
+      <c r="D232" t="s">
+        <v>676</v>
+      </c>
+      <c r="E232" t="s">
+        <v>737</v>
+      </c>
+      <c r="F232" t="s">
+        <v>761</v>
+      </c>
+      <c r="G232">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" t="s">
+        <v>246</v>
+      </c>
+      <c r="C233" t="s">
+        <v>563</v>
+      </c>
+      <c r="D233" t="s">
+        <v>676</v>
+      </c>
+      <c r="E233" t="s">
+        <v>745</v>
+      </c>
+      <c r="F233" t="s">
+        <v>769</v>
+      </c>
+      <c r="G233">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>247</v>
+      </c>
+      <c r="C234" t="s">
+        <v>564</v>
+      </c>
+      <c r="D234" t="s">
+        <v>676</v>
+      </c>
+      <c r="E234" t="s">
+        <v>737</v>
+      </c>
+      <c r="F234" t="s">
+        <v>761</v>
+      </c>
+      <c r="G234">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>248</v>
+      </c>
+      <c r="C235" t="s">
+        <v>565</v>
+      </c>
+      <c r="D235" t="s">
+        <v>675</v>
+      </c>
+      <c r="E235" t="s">
+        <v>737</v>
+      </c>
+      <c r="F235" t="s">
+        <v>761</v>
+      </c>
+      <c r="G235">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" t="s">
+        <v>249</v>
+      </c>
+      <c r="C236" t="s">
+        <v>566</v>
+      </c>
+      <c r="D236" t="s">
+        <v>675</v>
+      </c>
+      <c r="E236" t="s">
+        <v>740</v>
+      </c>
+      <c r="F236" t="s">
+        <v>764</v>
+      </c>
+      <c r="G236">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>250</v>
+      </c>
+      <c r="C237" t="s">
+        <v>567</v>
+      </c>
+      <c r="D237" t="s">
+        <v>675</v>
+      </c>
+      <c r="E237" t="s">
+        <v>740</v>
+      </c>
+      <c r="F237" t="s">
+        <v>764</v>
+      </c>
+      <c r="G237">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>251</v>
+      </c>
+      <c r="C238" t="s">
+        <v>568</v>
+      </c>
+      <c r="D238" t="s">
+        <v>675</v>
+      </c>
+      <c r="E238" t="s">
+        <v>737</v>
+      </c>
+      <c r="F238" t="s">
+        <v>761</v>
+      </c>
+      <c r="G238">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" t="s">
+        <v>252</v>
+      </c>
+      <c r="C239" t="s">
+        <v>569</v>
+      </c>
+      <c r="D239" t="s">
+        <v>675</v>
+      </c>
+      <c r="E239" t="s">
+        <v>737</v>
+      </c>
+      <c r="F239" t="s">
+        <v>761</v>
+      </c>
+      <c r="G239">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" t="s">
+        <v>253</v>
+      </c>
+      <c r="C240" t="s">
+        <v>570</v>
+      </c>
+      <c r="D240" t="s">
+        <v>675</v>
+      </c>
+      <c r="E240" t="s">
+        <v>737</v>
+      </c>
+      <c r="F240" t="s">
+        <v>761</v>
+      </c>
+      <c r="G240">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>254</v>
+      </c>
+      <c r="C241" t="s">
+        <v>571</v>
+      </c>
+      <c r="D241" t="s">
+        <v>675</v>
+      </c>
+      <c r="E241" t="s">
+        <v>737</v>
+      </c>
+      <c r="F241" t="s">
+        <v>761</v>
+      </c>
+      <c r="G241">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" t="s">
+        <v>255</v>
+      </c>
+      <c r="C242" t="s">
+        <v>572</v>
+      </c>
+      <c r="D242" t="s">
+        <v>675</v>
+      </c>
+      <c r="E242" t="s">
+        <v>737</v>
+      </c>
+      <c r="F242" t="s">
+        <v>761</v>
+      </c>
+      <c r="G242">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" t="s">
+        <v>256</v>
+      </c>
+      <c r="C243" t="s">
+        <v>573</v>
+      </c>
+      <c r="D243" t="s">
+        <v>675</v>
+      </c>
+      <c r="E243" t="s">
+        <v>737</v>
+      </c>
+      <c r="F243" t="s">
+        <v>761</v>
+      </c>
+      <c r="G243">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" t="s">
+        <v>257</v>
+      </c>
+      <c r="C244" t="s">
+        <v>574</v>
+      </c>
+      <c r="D244" t="s">
+        <v>675</v>
+      </c>
+      <c r="E244" t="s">
+        <v>737</v>
+      </c>
+      <c r="F244" t="s">
+        <v>761</v>
+      </c>
+      <c r="G244">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" t="s">
+        <v>258</v>
+      </c>
+      <c r="C245" t="s">
+        <v>575</v>
+      </c>
+      <c r="D245" t="s">
+        <v>675</v>
+      </c>
+      <c r="E245" t="s">
+        <v>737</v>
+      </c>
+      <c r="F245" t="s">
+        <v>761</v>
+      </c>
+      <c r="G245">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" t="s">
+        <v>259</v>
+      </c>
+      <c r="C246" t="s">
+        <v>576</v>
+      </c>
+      <c r="D246" t="s">
+        <v>675</v>
+      </c>
+      <c r="E246" t="s">
+        <v>737</v>
+      </c>
+      <c r="F246" t="s">
+        <v>761</v>
+      </c>
+      <c r="G246">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" t="s">
+        <v>260</v>
+      </c>
+      <c r="C247" t="s">
+        <v>577</v>
+      </c>
+      <c r="D247" t="s">
+        <v>675</v>
+      </c>
+      <c r="E247" t="s">
+        <v>737</v>
+      </c>
+      <c r="F247" t="s">
+        <v>761</v>
+      </c>
+      <c r="G247">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" t="s">
+        <v>261</v>
+      </c>
+      <c r="C248" t="s">
+        <v>578</v>
+      </c>
+      <c r="D248" t="s">
+        <v>675</v>
+      </c>
+      <c r="E248" t="s">
+        <v>740</v>
+      </c>
+      <c r="F248" t="s">
+        <v>764</v>
+      </c>
+      <c r="G248">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" t="s">
+        <v>262</v>
+      </c>
+      <c r="C249" t="s">
+        <v>579</v>
+      </c>
+      <c r="D249" t="s">
+        <v>675</v>
+      </c>
+      <c r="E249" t="s">
+        <v>740</v>
+      </c>
+      <c r="F249" t="s">
+        <v>764</v>
+      </c>
+      <c r="G249">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" t="s">
+        <v>263</v>
+      </c>
+      <c r="C250" t="s">
+        <v>580</v>
+      </c>
+      <c r="D250" t="s">
+        <v>675</v>
+      </c>
+      <c r="E250" t="s">
+        <v>737</v>
+      </c>
+      <c r="F250" t="s">
+        <v>761</v>
+      </c>
+      <c r="G250">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" t="s">
+        <v>264</v>
+      </c>
+      <c r="C251" t="s">
+        <v>581</v>
+      </c>
+      <c r="D251" t="s">
+        <v>675</v>
+      </c>
+      <c r="E251" t="s">
+        <v>746</v>
+      </c>
+      <c r="F251" t="s">
+        <v>770</v>
+      </c>
+      <c r="G251">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" t="s">
+        <v>265</v>
+      </c>
+      <c r="C252" t="s">
+        <v>582</v>
+      </c>
+      <c r="D252" t="s">
+        <v>675</v>
+      </c>
+      <c r="E252" t="s">
+        <v>737</v>
+      </c>
+      <c r="F252" t="s">
+        <v>761</v>
+      </c>
+      <c r="G252">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>266</v>
+      </c>
+      <c r="C253" t="s">
+        <v>583</v>
+      </c>
+      <c r="D253" t="s">
+        <v>675</v>
+      </c>
+      <c r="E253" t="s">
+        <v>737</v>
+      </c>
+      <c r="F253" t="s">
+        <v>761</v>
+      </c>
+      <c r="G253">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" t="s">
+        <v>267</v>
+      </c>
+      <c r="C254" t="s">
+        <v>584</v>
+      </c>
+      <c r="D254" t="s">
+        <v>675</v>
+      </c>
+      <c r="E254" t="s">
+        <v>737</v>
+      </c>
+      <c r="F254" t="s">
+        <v>761</v>
+      </c>
+      <c r="G254">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" t="s">
+        <v>268</v>
+      </c>
+      <c r="C255" t="s">
+        <v>585</v>
+      </c>
+      <c r="D255" t="s">
+        <v>675</v>
+      </c>
+      <c r="E255" t="s">
+        <v>737</v>
+      </c>
+      <c r="F255" t="s">
+        <v>761</v>
+      </c>
+      <c r="G255">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>269</v>
+      </c>
+      <c r="C256" t="s">
+        <v>586</v>
+      </c>
+      <c r="D256" t="s">
+        <v>675</v>
+      </c>
+      <c r="E256" t="s">
+        <v>740</v>
+      </c>
+      <c r="F256" t="s">
+        <v>764</v>
+      </c>
+      <c r="G256">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>270</v>
+      </c>
+      <c r="C257" t="s">
+        <v>587</v>
+      </c>
+      <c r="D257" t="s">
+        <v>675</v>
+      </c>
+      <c r="E257" t="s">
+        <v>740</v>
+      </c>
+      <c r="F257" t="s">
+        <v>764</v>
+      </c>
+      <c r="G257">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" t="s">
+        <v>271</v>
+      </c>
+      <c r="C258" t="s">
+        <v>588</v>
+      </c>
+      <c r="D258" t="s">
+        <v>675</v>
+      </c>
+      <c r="E258" t="s">
+        <v>732</v>
+      </c>
+      <c r="F258" t="s">
+        <v>756</v>
+      </c>
+      <c r="G258">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
+        <v>272</v>
+      </c>
+      <c r="C259" t="s">
+        <v>589</v>
+      </c>
+      <c r="D259" t="s">
+        <v>675</v>
+      </c>
+      <c r="E259" t="s">
+        <v>730</v>
+      </c>
+      <c r="F259" t="s">
+        <v>754</v>
+      </c>
+      <c r="G259">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" t="s">
+        <v>273</v>
+      </c>
+      <c r="C260" t="s">
+        <v>590</v>
+      </c>
+      <c r="D260" t="s">
+        <v>675</v>
+      </c>
+      <c r="E260" t="s">
+        <v>737</v>
+      </c>
+      <c r="F260" t="s">
+        <v>761</v>
+      </c>
+      <c r="G260">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" t="s">
+        <v>274</v>
+      </c>
+      <c r="C261" t="s">
+        <v>591</v>
+      </c>
+      <c r="D261" t="s">
+        <v>675</v>
+      </c>
+      <c r="E261" t="s">
+        <v>737</v>
+      </c>
+      <c r="F261" t="s">
+        <v>761</v>
+      </c>
+      <c r="G261">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" t="s">
+        <v>275</v>
+      </c>
+      <c r="C262" t="s">
+        <v>592</v>
+      </c>
+      <c r="D262" t="s">
+        <v>675</v>
+      </c>
+      <c r="E262" t="s">
+        <v>740</v>
+      </c>
+      <c r="F262" t="s">
+        <v>764</v>
+      </c>
+      <c r="G262">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>276</v>
+      </c>
+      <c r="C263" t="s">
+        <v>593</v>
+      </c>
+      <c r="D263" t="s">
+        <v>675</v>
+      </c>
+      <c r="E263" t="s">
+        <v>740</v>
+      </c>
+      <c r="F263" t="s">
+        <v>764</v>
+      </c>
+      <c r="G263">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>277</v>
+      </c>
+      <c r="C264" t="s">
+        <v>594</v>
+      </c>
+      <c r="D264" t="s">
+        <v>675</v>
+      </c>
+      <c r="E264" t="s">
+        <v>737</v>
+      </c>
+      <c r="F264" t="s">
+        <v>761</v>
+      </c>
+      <c r="G264">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" t="s">
+        <v>278</v>
+      </c>
+      <c r="C265" t="s">
+        <v>595</v>
+      </c>
+      <c r="D265" t="s">
+        <v>675</v>
+      </c>
+      <c r="E265" t="s">
+        <v>737</v>
+      </c>
+      <c r="F265" t="s">
+        <v>761</v>
+      </c>
+      <c r="G265">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" t="s">
+        <v>279</v>
+      </c>
+      <c r="C266" t="s">
+        <v>596</v>
+      </c>
+      <c r="D266" t="s">
+        <v>675</v>
+      </c>
+      <c r="E266" t="s">
+        <v>737</v>
+      </c>
+      <c r="F266" t="s">
+        <v>761</v>
+      </c>
+      <c r="G266">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" t="s">
+        <v>280</v>
+      </c>
+      <c r="C267" t="s">
+        <v>597</v>
+      </c>
+      <c r="D267" t="s">
+        <v>675</v>
+      </c>
+      <c r="E267" t="s">
+        <v>737</v>
+      </c>
+      <c r="F267" t="s">
+        <v>761</v>
+      </c>
+      <c r="G267">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" t="s">
+        <v>281</v>
+      </c>
+      <c r="C268" t="s">
+        <v>598</v>
+      </c>
+      <c r="D268" t="s">
+        <v>675</v>
+      </c>
+      <c r="E268" t="s">
+        <v>737</v>
+      </c>
+      <c r="F268" t="s">
+        <v>761</v>
+      </c>
+      <c r="G268">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" t="s">
+        <v>282</v>
+      </c>
+      <c r="C269" t="s">
+        <v>599</v>
+      </c>
+      <c r="D269" t="s">
+        <v>675</v>
+      </c>
+      <c r="E269" t="s">
+        <v>737</v>
+      </c>
+      <c r="F269" t="s">
+        <v>761</v>
+      </c>
+      <c r="G269">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" t="s">
+        <v>283</v>
+      </c>
+      <c r="C270" t="s">
+        <v>600</v>
+      </c>
+      <c r="D270" t="s">
+        <v>675</v>
+      </c>
+      <c r="E270" t="s">
+        <v>737</v>
+      </c>
+      <c r="F270" t="s">
+        <v>761</v>
+      </c>
+      <c r="G270">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" t="s">
+        <v>284</v>
+      </c>
+      <c r="C271" t="s">
+        <v>601</v>
+      </c>
+      <c r="D271" t="s">
+        <v>675</v>
+      </c>
+      <c r="E271" t="s">
+        <v>737</v>
+      </c>
+      <c r="F271" t="s">
+        <v>761</v>
+      </c>
+      <c r="G271">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" t="s">
+        <v>285</v>
+      </c>
+      <c r="C272" t="s">
+        <v>602</v>
+      </c>
+      <c r="D272" t="s">
+        <v>675</v>
+      </c>
+      <c r="E272" t="s">
+        <v>737</v>
+      </c>
+      <c r="F272" t="s">
+        <v>761</v>
+      </c>
+      <c r="G272">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" t="s">
+        <v>286</v>
+      </c>
+      <c r="C273" t="s">
+        <v>603</v>
+      </c>
+      <c r="D273" t="s">
+        <v>675</v>
+      </c>
+      <c r="E273" t="s">
+        <v>737</v>
+      </c>
+      <c r="F273" t="s">
+        <v>761</v>
+      </c>
+      <c r="G273">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" t="s">
+        <v>287</v>
+      </c>
+      <c r="C274" t="s">
+        <v>604</v>
+      </c>
+      <c r="D274" t="s">
+        <v>675</v>
+      </c>
+      <c r="E274" t="s">
+        <v>737</v>
+      </c>
+      <c r="F274" t="s">
+        <v>761</v>
+      </c>
+      <c r="G274">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>288</v>
+      </c>
+      <c r="C275" t="s">
+        <v>605</v>
+      </c>
+      <c r="D275" t="s">
+        <v>675</v>
+      </c>
+      <c r="E275" t="s">
+        <v>737</v>
+      </c>
+      <c r="F275" t="s">
+        <v>761</v>
+      </c>
+      <c r="G275">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" t="s">
+        <v>289</v>
+      </c>
+      <c r="C276" t="s">
+        <v>606</v>
+      </c>
+      <c r="D276" t="s">
+        <v>675</v>
+      </c>
+      <c r="E276" t="s">
+        <v>746</v>
+      </c>
+      <c r="F276" t="s">
+        <v>770</v>
+      </c>
+      <c r="G276">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" t="s">
+        <v>290</v>
+      </c>
+      <c r="C277" t="s">
+        <v>607</v>
+      </c>
+      <c r="D277" t="s">
+        <v>675</v>
+      </c>
+      <c r="E277" t="s">
+        <v>737</v>
+      </c>
+      <c r="F277" t="s">
+        <v>761</v>
+      </c>
+      <c r="G277">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s">
+        <v>291</v>
+      </c>
+      <c r="C278" t="s">
+        <v>608</v>
+      </c>
+      <c r="D278" t="s">
+        <v>675</v>
+      </c>
+      <c r="E278" t="s">
+        <v>737</v>
+      </c>
+      <c r="F278" t="s">
+        <v>761</v>
+      </c>
+      <c r="G278">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" t="s">
+        <v>292</v>
+      </c>
+      <c r="C279" t="s">
+        <v>609</v>
+      </c>
+      <c r="D279" t="s">
+        <v>675</v>
+      </c>
+      <c r="E279" t="s">
+        <v>737</v>
+      </c>
+      <c r="F279" t="s">
+        <v>761</v>
+      </c>
+      <c r="G279">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" t="s">
+        <v>293</v>
+      </c>
+      <c r="C280" t="s">
+        <v>610</v>
+      </c>
+      <c r="D280" t="s">
+        <v>675</v>
+      </c>
+      <c r="E280" t="s">
+        <v>737</v>
+      </c>
+      <c r="F280" t="s">
+        <v>761</v>
+      </c>
+      <c r="G280">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" t="s">
+        <v>611</v>
+      </c>
+      <c r="D281" t="s">
+        <v>675</v>
+      </c>
+      <c r="E281" t="s">
+        <v>730</v>
+      </c>
+      <c r="F281" t="s">
+        <v>754</v>
+      </c>
+      <c r="G281">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" t="s">
+        <v>295</v>
+      </c>
+      <c r="C282" t="s">
+        <v>612</v>
+      </c>
+      <c r="D282" t="s">
+        <v>675</v>
+      </c>
+      <c r="E282" t="s">
+        <v>747</v>
+      </c>
+      <c r="F282" t="s">
+        <v>769</v>
+      </c>
+      <c r="G282">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" t="s">
+        <v>296</v>
+      </c>
+      <c r="C283" t="s">
+        <v>613</v>
+      </c>
+      <c r="D283" t="s">
+        <v>675</v>
+      </c>
+      <c r="E283" t="s">
+        <v>740</v>
+      </c>
+      <c r="F283" t="s">
+        <v>764</v>
+      </c>
+      <c r="G283">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" t="s">
+        <v>297</v>
+      </c>
+      <c r="C284" t="s">
+        <v>614</v>
+      </c>
+      <c r="D284" t="s">
+        <v>675</v>
+      </c>
+      <c r="E284" t="s">
+        <v>737</v>
+      </c>
+      <c r="F284" t="s">
+        <v>761</v>
+      </c>
+      <c r="G284">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285" t="s">
+        <v>615</v>
+      </c>
+      <c r="D285" t="s">
+        <v>675</v>
+      </c>
+      <c r="E285" t="s">
+        <v>737</v>
+      </c>
+      <c r="F285" t="s">
+        <v>761</v>
+      </c>
+      <c r="G285">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" s="2">
+        <v>46022.27395833333</v>
+      </c>
+      <c r="C286" t="s">
+        <v>616</v>
+      </c>
+      <c r="D286" t="s">
+        <v>677</v>
+      </c>
+      <c r="E286" t="s">
+        <v>748</v>
+      </c>
+      <c r="G286">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="2">
+        <v>46020.38100694444</v>
+      </c>
+      <c r="C287" t="s">
+        <v>617</v>
+      </c>
+      <c r="D287" t="s">
+        <v>677</v>
+      </c>
+      <c r="E287" t="s">
+        <v>748</v>
+      </c>
+      <c r="G287">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" s="2">
+        <v>46020.02805555556</v>
+      </c>
+      <c r="C288" t="s">
+        <v>618</v>
+      </c>
+      <c r="D288" t="s">
+        <v>677</v>
+      </c>
+      <c r="E288" t="s">
+        <v>748</v>
+      </c>
+      <c r="G288">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" s="2">
+        <v>46015.35263888889</v>
+      </c>
+      <c r="C289" t="s">
+        <v>619</v>
+      </c>
+      <c r="D289" t="s">
+        <v>677</v>
+      </c>
+      <c r="E289" t="s">
+        <v>748</v>
+      </c>
+      <c r="G289">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="2">
+        <v>46014.75284722223</v>
+      </c>
+      <c r="C290" t="s">
+        <v>620</v>
+      </c>
+      <c r="D290" t="s">
+        <v>677</v>
+      </c>
+      <c r="E290" t="s">
+        <v>748</v>
+      </c>
+      <c r="G290">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="2">
+        <v>46013.43880787037</v>
+      </c>
+      <c r="C291" t="s">
+        <v>621</v>
+      </c>
+      <c r="D291" t="s">
+        <v>677</v>
+      </c>
+      <c r="E291" t="s">
+        <v>749</v>
+      </c>
+      <c r="G291">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="2">
+        <v>46011.16506944445</v>
+      </c>
+      <c r="C292" t="s">
+        <v>622</v>
+      </c>
+      <c r="D292" t="s">
+        <v>677</v>
+      </c>
+      <c r="E292" t="s">
+        <v>749</v>
+      </c>
+      <c r="G292">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" s="2">
+        <v>46010.56800925926</v>
+      </c>
+      <c r="C293" t="s">
+        <v>623</v>
+      </c>
+      <c r="D293" t="s">
+        <v>677</v>
+      </c>
+      <c r="E293" t="s">
+        <v>748</v>
+      </c>
+      <c r="G293">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="2">
+        <v>46010.34143518518</v>
+      </c>
+      <c r="C294" t="s">
+        <v>624</v>
+      </c>
+      <c r="D294" t="s">
+        <v>677</v>
+      </c>
+      <c r="E294" t="s">
+        <v>749</v>
+      </c>
+      <c r="G294">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" s="2">
+        <v>46008.80971064815</v>
+      </c>
+      <c r="C295" t="s">
+        <v>625</v>
+      </c>
+      <c r="D295" t="s">
+        <v>677</v>
+      </c>
+      <c r="E295" t="s">
+        <v>749</v>
+      </c>
+      <c r="G295">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" s="2">
+        <v>46007.75378472222</v>
+      </c>
+      <c r="C296" t="s">
+        <v>626</v>
+      </c>
+      <c r="D296" t="s">
+        <v>677</v>
+      </c>
+      <c r="E296" t="s">
+        <v>748</v>
+      </c>
+      <c r="G296">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" s="2">
+        <v>46007.60759259259</v>
+      </c>
+      <c r="C297" t="s">
+        <v>627</v>
+      </c>
+      <c r="D297" t="s">
+        <v>677</v>
+      </c>
+      <c r="E297" t="s">
+        <v>748</v>
+      </c>
+      <c r="G297">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="2">
+        <v>46006.74927083333</v>
+      </c>
+      <c r="C298" t="s">
+        <v>628</v>
+      </c>
+      <c r="D298" t="s">
+        <v>677</v>
+      </c>
+      <c r="E298" t="s">
+        <v>748</v>
+      </c>
+      <c r="G298">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="2">
+        <v>46003.75199074074</v>
+      </c>
+      <c r="C299" t="s">
+        <v>629</v>
+      </c>
+      <c r="D299" t="s">
+        <v>677</v>
+      </c>
+      <c r="E299" t="s">
+        <v>748</v>
+      </c>
+      <c r="G299">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" s="2">
+        <v>46002.76061342593</v>
+      </c>
+      <c r="C300" t="s">
+        <v>630</v>
+      </c>
+      <c r="D300" t="s">
+        <v>677</v>
+      </c>
+      <c r="E300" t="s">
+        <v>748</v>
+      </c>
+      <c r="G300">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="2">
+        <v>46002.36327546297</v>
+      </c>
+      <c r="C301" t="s">
+        <v>631</v>
+      </c>
+      <c r="D301" t="s">
+        <v>677</v>
+      </c>
+      <c r="E301" t="s">
+        <v>748</v>
+      </c>
+      <c r="G301">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" s="2">
+        <v>46001.37660879629</v>
+      </c>
+      <c r="C302" t="s">
+        <v>632</v>
+      </c>
+      <c r="D302" t="s">
+        <v>677</v>
+      </c>
+      <c r="E302" t="s">
+        <v>748</v>
+      </c>
+      <c r="G302">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" s="2">
+        <v>45999.74108796296</v>
+      </c>
+      <c r="C303" t="s">
+        <v>633</v>
+      </c>
+      <c r="D303" t="s">
+        <v>677</v>
+      </c>
+      <c r="E303" t="s">
+        <v>748</v>
+      </c>
+      <c r="G303">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="2">
+        <v>45997.74393518519</v>
+      </c>
+      <c r="C304" t="s">
+        <v>634</v>
+      </c>
+      <c r="D304" t="s">
+        <v>677</v>
+      </c>
+      <c r="E304" t="s">
+        <v>748</v>
+      </c>
+      <c r="G304">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="2">
+        <v>45996.7475462963</v>
+      </c>
+      <c r="C305" t="s">
+        <v>635</v>
+      </c>
+      <c r="D305" t="s">
+        <v>677</v>
+      </c>
+      <c r="E305" t="s">
+        <v>748</v>
+      </c>
+      <c r="G305">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="2">
+        <v>45995.51697916666</v>
+      </c>
+      <c r="C306" t="s">
+        <v>636</v>
+      </c>
+      <c r="D306" t="s">
+        <v>677</v>
+      </c>
+      <c r="E306" t="s">
+        <v>748</v>
+      </c>
+      <c r="G306">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307" s="2">
+        <v>45994.71915509259</v>
+      </c>
+      <c r="C307" t="s">
+        <v>637</v>
+      </c>
+      <c r="D307" t="s">
+        <v>677</v>
+      </c>
+      <c r="E307" t="s">
+        <v>748</v>
+      </c>
+      <c r="G307">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" s="2">
+        <v>45994.52539351852</v>
+      </c>
+      <c r="C308" t="s">
+        <v>638</v>
+      </c>
+      <c r="D308" t="s">
+        <v>677</v>
+      </c>
+      <c r="E308" t="s">
+        <v>748</v>
+      </c>
+      <c r="G308">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="2">
+        <v>45994.35607638889</v>
+      </c>
+      <c r="C309" t="s">
+        <v>639</v>
+      </c>
+      <c r="D309" t="s">
+        <v>677</v>
+      </c>
+      <c r="E309" t="s">
+        <v>748</v>
+      </c>
+      <c r="G309">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>299</v>
+      </c>
+      <c r="C310" t="s">
+        <v>640</v>
+      </c>
+      <c r="D310" t="s">
+        <v>676</v>
+      </c>
+      <c r="E310" t="s">
+        <v>737</v>
+      </c>
+      <c r="F310" t="s">
+        <v>761</v>
+      </c>
+      <c r="G310">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>300</v>
+      </c>
+      <c r="C311" t="s">
+        <v>641</v>
+      </c>
+      <c r="D311" t="s">
+        <v>676</v>
+      </c>
+      <c r="E311" t="s">
+        <v>737</v>
+      </c>
+      <c r="F311" t="s">
+        <v>761</v>
+      </c>
+      <c r="G311">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312" t="s">
+        <v>301</v>
+      </c>
+      <c r="C312" t="s">
+        <v>642</v>
+      </c>
+      <c r="D312" t="s">
+        <v>676</v>
+      </c>
+      <c r="E312" t="s">
+        <v>737</v>
+      </c>
+      <c r="F312" t="s">
+        <v>761</v>
+      </c>
+      <c r="G312">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" t="s">
+        <v>302</v>
+      </c>
+      <c r="C313" t="s">
+        <v>643</v>
+      </c>
+      <c r="D313" t="s">
+        <v>676</v>
+      </c>
+      <c r="E313" t="s">
+        <v>737</v>
+      </c>
+      <c r="F313" t="s">
+        <v>761</v>
+      </c>
+      <c r="G313">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314" t="s">
+        <v>303</v>
+      </c>
+      <c r="C314" t="s">
+        <v>644</v>
+      </c>
+      <c r="D314" t="s">
+        <v>676</v>
+      </c>
+      <c r="E314" t="s">
+        <v>737</v>
+      </c>
+      <c r="F314" t="s">
+        <v>761</v>
+      </c>
+      <c r="G314">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315" t="s">
+        <v>304</v>
+      </c>
+      <c r="C315" t="s">
+        <v>645</v>
+      </c>
+      <c r="D315" t="s">
+        <v>676</v>
+      </c>
+      <c r="E315" t="s">
+        <v>737</v>
+      </c>
+      <c r="F315" t="s">
+        <v>761</v>
+      </c>
+      <c r="G315">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" t="s">
+        <v>305</v>
+      </c>
+      <c r="C316" t="s">
+        <v>646</v>
+      </c>
+      <c r="D316" t="s">
+        <v>676</v>
+      </c>
+      <c r="E316" t="s">
+        <v>737</v>
+      </c>
+      <c r="F316" t="s">
+        <v>761</v>
+      </c>
+      <c r="G316">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" t="s">
+        <v>306</v>
+      </c>
+      <c r="C317" t="s">
+        <v>647</v>
+      </c>
+      <c r="D317" t="s">
+        <v>676</v>
+      </c>
+      <c r="E317" t="s">
+        <v>737</v>
+      </c>
+      <c r="F317" t="s">
+        <v>761</v>
+      </c>
+      <c r="G317">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>14</v>
+      </c>
+      <c r="B318" t="s">
+        <v>307</v>
+      </c>
+      <c r="C318" t="s">
+        <v>648</v>
+      </c>
+      <c r="D318" t="s">
+        <v>676</v>
+      </c>
+      <c r="E318" t="s">
+        <v>737</v>
+      </c>
+      <c r="F318" t="s">
+        <v>761</v>
+      </c>
+      <c r="G318">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s">
+        <v>308</v>
+      </c>
+      <c r="C319" t="s">
+        <v>649</v>
+      </c>
+      <c r="D319" t="s">
+        <v>676</v>
+      </c>
+      <c r="E319" t="s">
+        <v>737</v>
+      </c>
+      <c r="F319" t="s">
+        <v>761</v>
+      </c>
+      <c r="G319">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" t="s">
+        <v>309</v>
+      </c>
+      <c r="C320" t="s">
+        <v>650</v>
+      </c>
+      <c r="D320" t="s">
+        <v>676</v>
+      </c>
+      <c r="E320" t="s">
+        <v>737</v>
+      </c>
+      <c r="F320" t="s">
+        <v>761</v>
+      </c>
+      <c r="G320">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321" t="s">
+        <v>310</v>
+      </c>
+      <c r="C321" t="s">
+        <v>651</v>
+      </c>
+      <c r="D321" t="s">
+        <v>676</v>
+      </c>
+      <c r="E321" t="s">
+        <v>737</v>
+      </c>
+      <c r="F321" t="s">
+        <v>761</v>
+      </c>
+      <c r="G321">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322" t="s">
+        <v>311</v>
+      </c>
+      <c r="C322" t="s">
+        <v>652</v>
+      </c>
+      <c r="D322" t="s">
+        <v>676</v>
+      </c>
+      <c r="E322" t="s">
+        <v>737</v>
+      </c>
+      <c r="F322" t="s">
+        <v>761</v>
+      </c>
+      <c r="G322">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323" t="s">
+        <v>312</v>
+      </c>
+      <c r="C323" t="s">
+        <v>653</v>
+      </c>
+      <c r="D323" t="s">
+        <v>676</v>
+      </c>
+      <c r="E323" t="s">
+        <v>737</v>
+      </c>
+      <c r="F323" t="s">
+        <v>761</v>
+      </c>
+      <c r="G323">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>14</v>
+      </c>
+      <c r="B324" t="s">
+        <v>313</v>
+      </c>
+      <c r="C324" t="s">
+        <v>654</v>
+      </c>
+      <c r="D324" t="s">
+        <v>676</v>
+      </c>
+      <c r="E324" t="s">
+        <v>737</v>
+      </c>
+      <c r="F324" t="s">
+        <v>761</v>
+      </c>
+      <c r="G324">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" t="s">
+        <v>314</v>
+      </c>
+      <c r="C325" t="s">
+        <v>655</v>
+      </c>
+      <c r="D325" t="s">
+        <v>676</v>
+      </c>
+      <c r="E325" t="s">
+        <v>737</v>
+      </c>
+      <c r="F325" t="s">
+        <v>761</v>
+      </c>
+      <c r="G325">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>14</v>
+      </c>
+      <c r="B326" t="s">
+        <v>315</v>
+      </c>
+      <c r="C326" t="s">
+        <v>656</v>
+      </c>
+      <c r="D326" t="s">
+        <v>676</v>
+      </c>
+      <c r="E326" t="s">
+        <v>737</v>
+      </c>
+      <c r="F326" t="s">
+        <v>761</v>
+      </c>
+      <c r="G326">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327" t="s">
+        <v>316</v>
+      </c>
+      <c r="C327" t="s">
+        <v>657</v>
+      </c>
+      <c r="D327" t="s">
+        <v>676</v>
+      </c>
+      <c r="E327" t="s">
+        <v>737</v>
+      </c>
+      <c r="F327" t="s">
+        <v>761</v>
+      </c>
+      <c r="G327">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>14</v>
+      </c>
+      <c r="B328" t="s">
+        <v>317</v>
+      </c>
+      <c r="C328" t="s">
+        <v>658</v>
+      </c>
+      <c r="D328" t="s">
+        <v>676</v>
+      </c>
+      <c r="E328" t="s">
+        <v>737</v>
+      </c>
+      <c r="F328" t="s">
+        <v>761</v>
+      </c>
+      <c r="G328">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" t="s">
+        <v>318</v>
+      </c>
+      <c r="C329" t="s">
+        <v>659</v>
+      </c>
+      <c r="D329" t="s">
+        <v>676</v>
+      </c>
+      <c r="E329" t="s">
+        <v>750</v>
+      </c>
+      <c r="F329" t="s">
+        <v>771</v>
+      </c>
+      <c r="G329">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>14</v>
+      </c>
+      <c r="B330" t="s">
+        <v>319</v>
+      </c>
+      <c r="C330" t="s">
+        <v>660</v>
+      </c>
+      <c r="D330" t="s">
+        <v>676</v>
+      </c>
+      <c r="E330" t="s">
+        <v>737</v>
+      </c>
+      <c r="F330" t="s">
+        <v>761</v>
+      </c>
+      <c r="G330">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>14</v>
+      </c>
+      <c r="B331" t="s">
+        <v>320</v>
+      </c>
+      <c r="C331" t="s">
+        <v>661</v>
+      </c>
+      <c r="D331" t="s">
+        <v>676</v>
+      </c>
+      <c r="E331" t="s">
+        <v>751</v>
+      </c>
+      <c r="F331" t="s">
+        <v>772</v>
+      </c>
+      <c r="G331">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>14</v>
+      </c>
+      <c r="B332" t="s">
+        <v>321</v>
+      </c>
+      <c r="C332" t="s">
+        <v>662</v>
+      </c>
+      <c r="D332" t="s">
+        <v>676</v>
+      </c>
+      <c r="E332" t="s">
+        <v>752</v>
+      </c>
+      <c r="F332" t="s">
+        <v>760</v>
+      </c>
+      <c r="G332">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>14</v>
+      </c>
+      <c r="B333" t="s">
+        <v>322</v>
+      </c>
+      <c r="C333" t="s">
+        <v>663</v>
+      </c>
+      <c r="D333" t="s">
+        <v>676</v>
+      </c>
+      <c r="E333" t="s">
+        <v>737</v>
+      </c>
+      <c r="F333" t="s">
+        <v>761</v>
+      </c>
+      <c r="G333">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>14</v>
+      </c>
+      <c r="B334" t="s">
+        <v>323</v>
+      </c>
+      <c r="C334" t="s">
+        <v>664</v>
+      </c>
+      <c r="D334" t="s">
+        <v>676</v>
+      </c>
+      <c r="E334" t="s">
+        <v>737</v>
+      </c>
+      <c r="F334" t="s">
+        <v>761</v>
+      </c>
+      <c r="G334">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>14</v>
+      </c>
+      <c r="B335" t="s">
+        <v>324</v>
+      </c>
+      <c r="C335" t="s">
+        <v>665</v>
+      </c>
+      <c r="D335" t="s">
+        <v>676</v>
+      </c>
+      <c r="E335" t="s">
+        <v>752</v>
+      </c>
+      <c r="F335" t="s">
+        <v>760</v>
+      </c>
+      <c r="G335">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>14</v>
+      </c>
+      <c r="B336" t="s">
+        <v>325</v>
+      </c>
+      <c r="C336" t="s">
+        <v>666</v>
+      </c>
+      <c r="D336" t="s">
+        <v>676</v>
+      </c>
+      <c r="E336" t="s">
+        <v>737</v>
+      </c>
+      <c r="F336" t="s">
+        <v>761</v>
+      </c>
+      <c r="G336">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>14</v>
+      </c>
+      <c r="B337" t="s">
+        <v>326</v>
+      </c>
+      <c r="C337" t="s">
+        <v>667</v>
+      </c>
+      <c r="D337" t="s">
+        <v>676</v>
+      </c>
+      <c r="E337" t="s">
+        <v>737</v>
+      </c>
+      <c r="F337" t="s">
+        <v>761</v>
+      </c>
+      <c r="G337">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>14</v>
+      </c>
+      <c r="B338" t="s">
+        <v>327</v>
+      </c>
+      <c r="C338" t="s">
+        <v>668</v>
+      </c>
+      <c r="D338" t="s">
+        <v>676</v>
+      </c>
+      <c r="E338" t="s">
+        <v>737</v>
+      </c>
+      <c r="F338" t="s">
+        <v>761</v>
+      </c>
+      <c r="G338">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>14</v>
+      </c>
+      <c r="B339" t="s">
+        <v>328</v>
+      </c>
+      <c r="C339" t="s">
+        <v>669</v>
+      </c>
+      <c r="D339" t="s">
+        <v>676</v>
+      </c>
+      <c r="E339" t="s">
+        <v>737</v>
+      </c>
+      <c r="F339" t="s">
+        <v>761</v>
+      </c>
+      <c r="G339">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>14</v>
+      </c>
+      <c r="B340" t="s">
+        <v>329</v>
+      </c>
+      <c r="C340" t="s">
+        <v>670</v>
+      </c>
+      <c r="D340" t="s">
+        <v>676</v>
+      </c>
+      <c r="E340" t="s">
+        <v>737</v>
+      </c>
+      <c r="F340" t="s">
+        <v>761</v>
+      </c>
+      <c r="G340">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341" t="s">
+        <v>330</v>
+      </c>
+      <c r="C341" t="s">
+        <v>671</v>
+      </c>
+      <c r="D341" t="s">
+        <v>676</v>
+      </c>
+      <c r="E341" t="s">
+        <v>737</v>
+      </c>
+      <c r="F341" t="s">
+        <v>761</v>
+      </c>
+      <c r="G341">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>14</v>
+      </c>
+      <c r="B342" t="s">
+        <v>331</v>
+      </c>
+      <c r="C342" t="s">
+        <v>672</v>
+      </c>
+      <c r="D342" t="s">
+        <v>676</v>
+      </c>
+      <c r="E342" t="s">
+        <v>753</v>
+      </c>
+      <c r="F342" t="s">
+        <v>773</v>
+      </c>
+      <c r="G342">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
